--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResAudioCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResAudioCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\Datas\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BA33E1-6577-4485-B1B2-4EB955A3C5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8826DB-7EF3-469D-93D2-3D918C969E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1536" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -51,6 +52,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -66,6 +68,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -76,6 +79,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -103,6 +107,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -113,6 +118,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -161,7 +167,142 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AudioBattle/dead.wav</t>
+    <t>dead</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Click</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_failed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_victory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_ready_go</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioUI/failed.mp3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioUI/victory.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioUI/ready_go.mp3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music_main</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music/main.mp3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music_login</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music/login.mp3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music_game1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music/game1.mp3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music_game2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music_game3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music/game2.mp3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music/game3.mp3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Back</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Confirm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioUI/confirm.mp3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioUI/click.mp3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioUI/back.ogg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioBattle/dead.mp3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>solo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aoe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioBattle/aoe.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioBattle/line.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioBattle/solo.mp3</t>
+  </si>
+  <si>
+    <t>AudioBattle/circle.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioUI/set.mp3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击放置炮塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerPush</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -181,6 +322,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -188,12 +330,14 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -573,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -780,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="str">
-        <f>B6&amp;"_"&amp;C6</f>
+        <f t="shared" ref="D6:D11" si="0">B6&amp;"_"&amp;C6</f>
         <v>ResAudio_1</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -793,7 +937,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="8" t="str">
-        <f>G6&amp;"/"&amp;H6</f>
+        <f t="shared" ref="I6:I11" si="1">G6&amp;"/"&amp;H6</f>
         <v>Assets/ResAB/Audio/AudioBattle/bomb.wav</v>
       </c>
     </row>
@@ -801,12 +945,12 @@
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="C7" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="D7" t="str">
-        <f>B7&amp;"_"&amp;C7</f>
-        <v>ResAudio_2</v>
+        <f t="shared" si="0"/>
+        <v>ResAudio_dead</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>18</v>
@@ -815,11 +959,389 @@
         <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I7" s="8" t="str">
-        <f>G7&amp;"/"&amp;H7</f>
-        <v>Assets/ResAB/Audio/AudioBattle/dead.wav</v>
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Audio/AudioBattle/dead.mp3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>ResAudio_solo</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Audio/AudioBattle/solo.mp3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>ResAudio_aoe</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Audio/AudioBattle/aoe.wav</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>ResAudio_line</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Audio/AudioBattle/line.wav</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>ResAudio_circle</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Audio/AudioBattle/circle.wav</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="str">
+        <f>B13&amp;"_"&amp;C13</f>
+        <v>ResAudio_UI_ready_go</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f>G13&amp;"/"&amp;H13</f>
+        <v>Assets/ResAB/Audio/AudioUI/ready_go.mp3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="str">
+        <f>B14&amp;"_"&amp;C14</f>
+        <v>ResAudio_UI_victory</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f>G14&amp;"/"&amp;H14</f>
+        <v>Assets/ResAB/Audio/AudioUI/victory.wav</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="str">
+        <f>B15&amp;"_"&amp;C15</f>
+        <v>ResAudio_UI_failed</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f>G15&amp;"/"&amp;H15</f>
+        <v>Assets/ResAB/Audio/AudioUI/failed.mp3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="str">
+        <f>B17&amp;"_"&amp;C17</f>
+        <v>ResAudio_UI_Click</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f>G17&amp;"/"&amp;H17</f>
+        <v>Assets/ResAB/Audio/AudioUI/click.mp3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="str">
+        <f>B18&amp;"_"&amp;C18</f>
+        <v>ResAudio_UI_Back</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f>G18&amp;"/"&amp;H18</f>
+        <v>Assets/ResAB/Audio/AudioUI/back.ogg</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="str">
+        <f>B19&amp;"_"&amp;C19</f>
+        <v>ResAudio_UI_Confirm</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f>G19&amp;"/"&amp;H19</f>
+        <v>Assets/ResAB/Audio/AudioUI/confirm.mp3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="str">
+        <f>B20&amp;"_"&amp;C20</f>
+        <v>ResAudio_TowerPush</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="8" t="str">
+        <f>G20&amp;"/"&amp;H20</f>
+        <v>Assets/ResAB/Audio/AudioUI/set.mp3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="str">
+        <f>B22&amp;"_"&amp;C22</f>
+        <v>ResAudio_Music_login</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f>G22&amp;"/"&amp;H22</f>
+        <v>Assets/ResAB/Audio/Music/login.mp3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="str">
+        <f>B23&amp;"_"&amp;C23</f>
+        <v>ResAudio_Music_main</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f>G23&amp;"/"&amp;H23</f>
+        <v>Assets/ResAB/Audio/Music/main.mp3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="str">
+        <f>B24&amp;"_"&amp;C24</f>
+        <v>ResAudio_Music_game1</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <f>G24&amp;"/"&amp;H24</f>
+        <v>Assets/ResAB/Audio/Music/game1.mp3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="str">
+        <f>B25&amp;"_"&amp;C25</f>
+        <v>ResAudio_Music_game2</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="8" t="str">
+        <f>G25&amp;"/"&amp;H25</f>
+        <v>Assets/ResAB/Audio/Music/game2.mp3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="str">
+        <f>B26&amp;"_"&amp;C26</f>
+        <v>ResAudio_Music_game3</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <f>G26&amp;"/"&amp;H26</f>
+        <v>Assets/ResAB/Audio/Music/game3.mp3</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResAudioCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResAudioCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A0D4FA-893D-4A49-A685-96F2504458AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31433652-4323-42EC-BC0A-0FEB2F80DE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="586">
   <si>
     <t>##var</t>
   </si>
@@ -1818,6 +1818,65 @@
   <si>
     <t>AudioBattle/BossAppear.wav</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹开火音效1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹开火音效2</t>
+  </si>
+  <si>
+    <t>炸弹开火音效3</t>
+  </si>
+  <si>
+    <r>
+      <t>FireTowerBomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.wav</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹命中音效1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹命中音效2</t>
+  </si>
+  <si>
+    <t>炸弹命中音效3</t>
+  </si>
+  <si>
+    <t>HitTowerBomb.wav</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerBomb1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerBomb2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerBomb3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerBomb1</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerBomb2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerBomb3</t>
   </si>
 </sst>
 </file>
@@ -1944,7 +2003,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -1954,6 +2013,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2232,10 +2294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA191"/>
+  <dimension ref="A1:AA197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D106" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2464,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D6:D12" si="1">B7&amp;"_"&amp;C7</f>
+        <f t="shared" ref="D7:D12" si="1">B7&amp;"_"&amp;C7</f>
         <v>ResAudio_1</v>
       </c>
       <c r="F7" t="s">
@@ -4919,7 +4981,7 @@
         <v>315</v>
       </c>
       <c r="I115" s="6" t="str">
-        <f t="shared" ref="I115:I179" si="9">G115&amp;"/"&amp;H115</f>
+        <f t="shared" ref="I115:I182" si="9">G115&amp;"/"&amp;H115</f>
         <v>Assets/ResAB/Audio/AudioBattle/FireTowerRocket.wav</v>
       </c>
     </row>
@@ -4995,234 +5057,216 @@
         <v>Assets/ResAB/Audio/AudioBattle/FireTowerFireOrb.wav</v>
       </c>
     </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D119" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="G119" t="s">
+        <v>104</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="I119" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerBomb.wav</v>
+      </c>
+    </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120" t="s">
-        <v>332</v>
-      </c>
-      <c r="D120" t="s">
-        <v>333</v>
-      </c>
-      <c r="F120" t="s">
-        <v>334</v>
+      <c r="D120" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>573</v>
       </c>
       <c r="G120" t="s">
         <v>104</v>
       </c>
-      <c r="H120" t="s">
-        <v>335</v>
+      <c r="H120" s="8" t="s">
+        <v>575</v>
       </c>
       <c r="I120" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerArrow.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerBomb.wav</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121" t="s">
-        <v>336</v>
-      </c>
-      <c r="D121" t="s">
-        <v>337</v>
-      </c>
-      <c r="F121" t="s">
-        <v>338</v>
+      <c r="D121" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>574</v>
       </c>
       <c r="G121" t="s">
         <v>104</v>
       </c>
-      <c r="H121" t="s">
-        <v>335</v>
+      <c r="H121" s="8" t="s">
+        <v>575</v>
       </c>
       <c r="I121" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerArrow.wav</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" t="s">
-        <v>339</v>
-      </c>
-      <c r="D122" t="s">
-        <v>340</v>
-      </c>
-      <c r="F122" t="s">
-        <v>341</v>
-      </c>
-      <c r="G122" t="s">
-        <v>104</v>
-      </c>
-      <c r="H122" t="s">
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerBomb.wav</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>332</v>
+      </c>
+      <c r="D123" t="s">
+        <v>333</v>
+      </c>
+      <c r="F123" t="s">
+        <v>334</v>
+      </c>
+      <c r="G123" t="s">
+        <v>104</v>
+      </c>
+      <c r="H123" t="s">
         <v>335</v>
       </c>
-      <c r="I122" s="6" t="str">
+      <c r="I123" s="6" t="str">
         <f t="shared" si="9"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerArrow.wav</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" t="s">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>336</v>
+      </c>
+      <c r="D124" t="s">
+        <v>337</v>
+      </c>
+      <c r="F124" t="s">
+        <v>338</v>
+      </c>
+      <c r="G124" t="s">
+        <v>104</v>
+      </c>
+      <c r="H124" t="s">
+        <v>335</v>
+      </c>
+      <c r="I124" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerArrow.wav</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" t="s">
+        <v>339</v>
+      </c>
+      <c r="D125" t="s">
+        <v>340</v>
+      </c>
+      <c r="F125" t="s">
+        <v>341</v>
+      </c>
+      <c r="G125" t="s">
+        <v>104</v>
+      </c>
+      <c r="H125" t="s">
+        <v>335</v>
+      </c>
+      <c r="I125" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerArrow.wav</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
         <v>342</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D126" t="s">
         <v>343</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F126" t="s">
         <v>344</v>
       </c>
-      <c r="G123" t="s">
-        <v>104</v>
-      </c>
-      <c r="H123" t="s">
+      <c r="G126" t="s">
+        <v>104</v>
+      </c>
+      <c r="H126" t="s">
         <v>345</v>
       </c>
-      <c r="I123" s="6" t="str">
+      <c r="I126" s="6" t="str">
         <f t="shared" si="9"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerCannon.wav</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" t="s">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
         <v>346</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D127" t="s">
         <v>347</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F127" t="s">
         <v>348</v>
       </c>
-      <c r="G124" t="s">
-        <v>104</v>
-      </c>
-      <c r="H124" t="s">
+      <c r="G127" t="s">
+        <v>104</v>
+      </c>
+      <c r="H127" t="s">
         <v>345</v>
       </c>
-      <c r="I124" s="6" t="str">
+      <c r="I127" s="6" t="str">
         <f t="shared" si="9"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerCannon.wav</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
-        <v>15</v>
-      </c>
-      <c r="C125" t="s">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" t="s">
         <v>349</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D128" t="s">
         <v>350</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F128" t="s">
         <v>351</v>
       </c>
-      <c r="G125" t="s">
-        <v>104</v>
-      </c>
-      <c r="H125" t="s">
+      <c r="G128" t="s">
+        <v>104</v>
+      </c>
+      <c r="H128" t="s">
         <v>345</v>
       </c>
-      <c r="I125" s="6" t="str">
+      <c r="I128" s="6" t="str">
         <f t="shared" si="9"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerCannon.wav</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" t="s">
-        <v>352</v>
-      </c>
-      <c r="D126" t="s">
-        <v>353</v>
-      </c>
-      <c r="F126" t="s">
-        <v>354</v>
-      </c>
-      <c r="G126" t="s">
-        <v>104</v>
-      </c>
-      <c r="H126" t="s">
-        <v>144</v>
-      </c>
-      <c r="I126" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" t="s">
-        <v>355</v>
-      </c>
-      <c r="D127" t="s">
-        <v>356</v>
-      </c>
-      <c r="F127" t="s">
-        <v>357</v>
-      </c>
-      <c r="G127" t="s">
-        <v>104</v>
-      </c>
-      <c r="H127" t="s">
-        <v>144</v>
-      </c>
-      <c r="I127" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>15</v>
-      </c>
-      <c r="C128" t="s">
-        <v>358</v>
-      </c>
-      <c r="D128" t="s">
-        <v>359</v>
-      </c>
-      <c r="F128" t="s">
-        <v>360</v>
-      </c>
-      <c r="G128" t="s">
-        <v>104</v>
-      </c>
-      <c r="H128" t="s">
-        <v>144</v>
-      </c>
-      <c r="I128" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
-      </c>
-    </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D129" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F129" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G129" t="s">
         <v>104</v>
@@ -5240,13 +5284,13 @@
         <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D130" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F130" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G130" t="s">
         <v>104</v>
@@ -5264,13 +5308,13 @@
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D131" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F131" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G131" t="s">
         <v>104</v>
@@ -5288,23 +5332,23 @@
         <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D132" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F132" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G132" t="s">
         <v>104</v>
       </c>
       <c r="H132" t="s">
-        <v>373</v>
+        <v>144</v>
       </c>
       <c r="I132" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDragon.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.2">
@@ -5312,23 +5356,23 @@
         <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D133" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F133" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G133" t="s">
         <v>104</v>
       </c>
       <c r="H133" t="s">
-        <v>373</v>
+        <v>144</v>
       </c>
       <c r="I133" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDragon.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.2">
@@ -5336,23 +5380,23 @@
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D134" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="F134" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="G134" t="s">
         <v>104</v>
       </c>
       <c r="H134" t="s">
-        <v>373</v>
+        <v>144</v>
       </c>
       <c r="I134" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDragon.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.2">
@@ -5360,23 +5404,23 @@
         <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D135" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F135" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G135" t="s">
         <v>104</v>
       </c>
       <c r="H135" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="I135" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThunder.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDragon.wav</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.2">
@@ -5384,23 +5428,23 @@
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D136" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F136" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="G136" t="s">
         <v>104</v>
       </c>
       <c r="H136" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="I136" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThunder.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDragon.wav</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.2">
@@ -5408,23 +5452,23 @@
         <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D137" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="F137" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G137" t="s">
         <v>104</v>
       </c>
       <c r="H137" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="I137" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThunder.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDragon.wav</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.2">
@@ -5432,23 +5476,23 @@
         <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D138" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F138" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G138" t="s">
         <v>104</v>
       </c>
       <c r="H138" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I138" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIce.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThunder.wav</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.2">
@@ -5456,23 +5500,23 @@
         <v>15</v>
       </c>
       <c r="C139" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D139" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F139" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G139" t="s">
         <v>104</v>
       </c>
       <c r="H139" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I139" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIce.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThunder.wav</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.2">
@@ -5480,23 +5524,23 @@
         <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D140" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="F140" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="G140" t="s">
         <v>104</v>
       </c>
       <c r="H140" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I140" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIce.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThunder.wav</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.2">
@@ -5504,23 +5548,23 @@
         <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D141" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F141" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G141" t="s">
         <v>104</v>
       </c>
       <c r="H141" t="s">
-        <v>144</v>
+        <v>393</v>
       </c>
       <c r="I141" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIce.wav</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.2">
@@ -5528,23 +5572,23 @@
         <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D142" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F142" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G142" t="s">
         <v>104</v>
       </c>
       <c r="H142" t="s">
-        <v>144</v>
+        <v>393</v>
       </c>
       <c r="I142" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIce.wav</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.2">
@@ -5552,23 +5596,23 @@
         <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D143" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F143" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G143" t="s">
         <v>104</v>
       </c>
       <c r="H143" t="s">
-        <v>144</v>
+        <v>393</v>
       </c>
       <c r="I143" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIce.wav</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.2">
@@ -5576,23 +5620,23 @@
         <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D144" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="F144" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="G144" t="s">
         <v>104</v>
       </c>
       <c r="H144" t="s">
-        <v>412</v>
+        <v>144</v>
       </c>
       <c r="I144" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerMystOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.2">
@@ -5600,23 +5644,23 @@
         <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D145" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F145" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="G145" t="s">
         <v>104</v>
       </c>
       <c r="H145" t="s">
-        <v>412</v>
+        <v>144</v>
       </c>
       <c r="I145" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerMystOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.2">
@@ -5624,23 +5668,23 @@
         <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D146" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F146" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G146" t="s">
         <v>104</v>
       </c>
       <c r="H146" t="s">
-        <v>412</v>
+        <v>144</v>
       </c>
       <c r="I146" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerMystOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.2">
@@ -5648,23 +5692,23 @@
         <v>15</v>
       </c>
       <c r="C147" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D147" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="F147" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="G147" t="s">
         <v>104</v>
       </c>
       <c r="H147" t="s">
-        <v>144</v>
+        <v>412</v>
       </c>
       <c r="I147" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerMystOrb.wav</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.2">
@@ -5672,23 +5716,23 @@
         <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D148" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F148" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G148" t="s">
         <v>104</v>
       </c>
       <c r="H148" t="s">
-        <v>144</v>
+        <v>412</v>
       </c>
       <c r="I148" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerMystOrb.wav</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.2">
@@ -5696,23 +5740,23 @@
         <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D149" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="F149" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="G149" t="s">
         <v>104</v>
       </c>
       <c r="H149" t="s">
-        <v>144</v>
+        <v>412</v>
       </c>
       <c r="I149" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerMystOrb.wav</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.2">
@@ -5720,23 +5764,23 @@
         <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D150" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F150" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G150" t="s">
         <v>104</v>
       </c>
       <c r="H150" t="s">
-        <v>431</v>
+        <v>144</v>
       </c>
       <c r="I150" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerScorpio.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.2">
@@ -5744,23 +5788,23 @@
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D151" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F151" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G151" t="s">
         <v>104</v>
       </c>
       <c r="H151" t="s">
-        <v>431</v>
+        <v>144</v>
       </c>
       <c r="I151" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerScorpio.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.2">
@@ -5768,23 +5812,23 @@
         <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D152" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F152" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="G152" t="s">
         <v>104</v>
       </c>
       <c r="H152" t="s">
-        <v>431</v>
+        <v>144</v>
       </c>
       <c r="I152" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerScorpio.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.2">
@@ -5792,23 +5836,23 @@
         <v>15</v>
       </c>
       <c r="C153" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D153" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F153" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G153" t="s">
         <v>104</v>
       </c>
       <c r="H153" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="I153" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBreaker.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerScorpio.wav</v>
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.2">
@@ -5816,23 +5860,23 @@
         <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D154" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F154" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G154" t="s">
         <v>104</v>
       </c>
       <c r="H154" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="I154" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBreaker.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerScorpio.wav</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.2">
@@ -5840,23 +5884,23 @@
         <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D155" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="F155" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G155" t="s">
         <v>104</v>
       </c>
       <c r="H155" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="I155" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBreaker.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerScorpio.wav</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.2">
@@ -5864,23 +5908,23 @@
         <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D156" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F156" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G156" t="s">
         <v>104</v>
       </c>
       <c r="H156" t="s">
-        <v>144</v>
+        <v>441</v>
       </c>
       <c r="I156" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBreaker.wav</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.2">
@@ -5888,23 +5932,23 @@
         <v>15</v>
       </c>
       <c r="C157" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D157" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="F157" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="G157" t="s">
         <v>104</v>
       </c>
       <c r="H157" t="s">
-        <v>144</v>
+        <v>441</v>
       </c>
       <c r="I157" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBreaker.wav</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.2">
@@ -5912,23 +5956,23 @@
         <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="D158" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F158" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G158" t="s">
         <v>104</v>
       </c>
       <c r="H158" t="s">
-        <v>144</v>
+        <v>441</v>
       </c>
       <c r="I158" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBreaker.wav</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.2">
@@ -5936,23 +5980,23 @@
         <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D159" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="F159" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="G159" t="s">
         <v>104</v>
       </c>
       <c r="H159" t="s">
-        <v>460</v>
+        <v>144</v>
       </c>
       <c r="I159" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIceArrow.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.2">
@@ -5960,23 +6004,23 @@
         <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D160" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="F160" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="G160" t="s">
         <v>104</v>
       </c>
       <c r="H160" t="s">
-        <v>460</v>
+        <v>144</v>
       </c>
       <c r="I160" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIceArrow.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.2">
@@ -5984,23 +6028,23 @@
         <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="D161" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F161" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G161" t="s">
         <v>104</v>
       </c>
       <c r="H161" t="s">
-        <v>460</v>
+        <v>144</v>
       </c>
       <c r="I161" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIceArrow.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.2">
@@ -6008,23 +6052,23 @@
         <v>15</v>
       </c>
       <c r="C162" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D162" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F162" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="G162" t="s">
         <v>104</v>
       </c>
       <c r="H162" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="I162" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDizzyOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIceArrow.wav</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.2">
@@ -6032,23 +6076,23 @@
         <v>15</v>
       </c>
       <c r="C163" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D163" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="F163" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="G163" t="s">
         <v>104</v>
       </c>
       <c r="H163" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="I163" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDizzyOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIceArrow.wav</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.2">
@@ -6056,23 +6100,23 @@
         <v>15</v>
       </c>
       <c r="C164" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D164" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F164" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G164" t="s">
         <v>104</v>
       </c>
       <c r="H164" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="I164" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDizzyOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIceArrow.wav</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.2">
@@ -6080,23 +6124,23 @@
         <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D165" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="F165" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="G165" t="s">
         <v>104</v>
       </c>
       <c r="H165" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="I165" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerTesla.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDizzyOrb.wav</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.2">
@@ -6104,23 +6148,23 @@
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="D166" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="F166" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="G166" t="s">
         <v>104</v>
       </c>
       <c r="H166" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="I166" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerTesla.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDizzyOrb.wav</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.2">
@@ -6128,23 +6172,23 @@
         <v>15</v>
       </c>
       <c r="C167" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D167" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F167" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="G167" t="s">
         <v>104</v>
       </c>
       <c r="H167" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="I167" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerTesla.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDizzyOrb.wav</v>
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.2">
@@ -6152,23 +6196,23 @@
         <v>15</v>
       </c>
       <c r="C168" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D168" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="F168" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="G168" t="s">
         <v>104</v>
       </c>
       <c r="H168" t="s">
-        <v>144</v>
+        <v>480</v>
       </c>
       <c r="I168" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerTesla.wav</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.2">
@@ -6176,23 +6220,23 @@
         <v>15</v>
       </c>
       <c r="C169" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D169" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F169" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G169" t="s">
         <v>104</v>
       </c>
       <c r="H169" t="s">
-        <v>144</v>
+        <v>480</v>
       </c>
       <c r="I169" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerTesla.wav</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.2">
@@ -6200,23 +6244,23 @@
         <v>15</v>
       </c>
       <c r="C170" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="D170" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="F170" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="G170" t="s">
         <v>104</v>
       </c>
       <c r="H170" t="s">
-        <v>144</v>
+        <v>480</v>
       </c>
       <c r="I170" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerTesla.wav</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.2">
@@ -6224,23 +6268,23 @@
         <v>15</v>
       </c>
       <c r="C171" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D171" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="F171" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G171" t="s">
         <v>104</v>
       </c>
       <c r="H171" t="s">
-        <v>499</v>
+        <v>144</v>
       </c>
       <c r="I171" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerHellFire.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.2">
@@ -6248,23 +6292,23 @@
         <v>15</v>
       </c>
       <c r="C172" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="D172" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F172" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="G172" t="s">
         <v>104</v>
       </c>
       <c r="H172" t="s">
-        <v>499</v>
+        <v>144</v>
       </c>
       <c r="I172" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerHellFire.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.2">
@@ -6272,23 +6316,23 @@
         <v>15</v>
       </c>
       <c r="C173" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D173" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F173" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="G173" t="s">
         <v>104</v>
       </c>
       <c r="H173" t="s">
-        <v>499</v>
+        <v>144</v>
       </c>
       <c r="I173" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerHellFire.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.2">
@@ -6296,23 +6340,23 @@
         <v>15</v>
       </c>
       <c r="C174" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="D174" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F174" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G174" t="s">
         <v>104</v>
       </c>
       <c r="H174" t="s">
-        <v>144</v>
+        <v>499</v>
       </c>
       <c r="I174" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerHellFire.wav</v>
       </c>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.2">
@@ -6320,23 +6364,23 @@
         <v>15</v>
       </c>
       <c r="C175" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="D175" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="F175" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="G175" t="s">
         <v>104</v>
       </c>
       <c r="H175" t="s">
-        <v>144</v>
+        <v>499</v>
       </c>
       <c r="I175" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerHellFire.wav</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.2">
@@ -6344,23 +6388,23 @@
         <v>15</v>
       </c>
       <c r="C176" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D176" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F176" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G176" t="s">
         <v>104</v>
       </c>
       <c r="H176" t="s">
-        <v>144</v>
+        <v>499</v>
       </c>
       <c r="I176" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerHellFire.wav</v>
       </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.2">
@@ -6368,13 +6412,13 @@
         <v>15</v>
       </c>
       <c r="C177" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D177" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="F177" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="G177" t="s">
         <v>104</v>
@@ -6392,13 +6436,13 @@
         <v>15</v>
       </c>
       <c r="C178" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D178" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F178" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G178" t="s">
         <v>104</v>
@@ -6416,13 +6460,13 @@
         <v>15</v>
       </c>
       <c r="C179" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D179" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="F179" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="G179" t="s">
         <v>104</v>
@@ -6440,23 +6484,23 @@
         <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="D180" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F180" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G180" t="s">
         <v>104</v>
       </c>
       <c r="H180" t="s">
-        <v>527</v>
+        <v>144</v>
       </c>
       <c r="I180" s="6" t="str">
-        <f t="shared" ref="I180:I191" si="10">G180&amp;"/"&amp;H180</f>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThief.wav</v>
+        <f t="shared" si="9"/>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.2">
@@ -6464,263 +6508,389 @@
         <v>15</v>
       </c>
       <c r="C181" t="s">
+        <v>518</v>
+      </c>
+      <c r="D181" t="s">
+        <v>519</v>
+      </c>
+      <c r="F181" t="s">
+        <v>520</v>
+      </c>
+      <c r="G181" t="s">
+        <v>104</v>
+      </c>
+      <c r="H181" t="s">
+        <v>144</v>
+      </c>
+      <c r="I181" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182" t="s">
+        <v>521</v>
+      </c>
+      <c r="D182" t="s">
+        <v>522</v>
+      </c>
+      <c r="F182" t="s">
+        <v>523</v>
+      </c>
+      <c r="G182" t="s">
+        <v>104</v>
+      </c>
+      <c r="H182" t="s">
+        <v>144</v>
+      </c>
+      <c r="I182" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183" t="s">
+        <v>524</v>
+      </c>
+      <c r="D183" t="s">
+        <v>525</v>
+      </c>
+      <c r="F183" t="s">
+        <v>526</v>
+      </c>
+      <c r="G183" t="s">
+        <v>104</v>
+      </c>
+      <c r="H183" t="s">
+        <v>527</v>
+      </c>
+      <c r="I183" s="6" t="str">
+        <f t="shared" ref="I183:I194" si="10">G183&amp;"/"&amp;H183</f>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThief.wav</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>15</v>
+      </c>
+      <c r="C184" t="s">
         <v>528</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D184" t="s">
         <v>529</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F184" t="s">
         <v>530</v>
       </c>
-      <c r="G181" t="s">
-        <v>104</v>
-      </c>
-      <c r="H181" t="s">
+      <c r="G184" t="s">
+        <v>104</v>
+      </c>
+      <c r="H184" t="s">
         <v>527</v>
       </c>
-      <c r="I181" s="6" t="str">
+      <c r="I184" s="6" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerThief.wav</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B182" t="s">
-        <v>15</v>
-      </c>
-      <c r="C182" t="s">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185" t="s">
         <v>531</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D185" t="s">
         <v>532</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F185" t="s">
         <v>533</v>
       </c>
-      <c r="G182" t="s">
-        <v>104</v>
-      </c>
-      <c r="H182" t="s">
+      <c r="G185" t="s">
+        <v>104</v>
+      </c>
+      <c r="H185" t="s">
         <v>527</v>
       </c>
-      <c r="I182" s="6" t="str">
+      <c r="I185" s="6" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerThief.wav</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B183" t="s">
-        <v>15</v>
-      </c>
-      <c r="C183" t="s">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186" t="s">
         <v>534</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D186" t="s">
         <v>535</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F186" t="s">
         <v>536</v>
       </c>
-      <c r="G183" t="s">
-        <v>104</v>
-      </c>
-      <c r="H183" t="s">
+      <c r="G186" t="s">
+        <v>104</v>
+      </c>
+      <c r="H186" t="s">
         <v>537</v>
       </c>
-      <c r="I183" s="6" t="str">
+      <c r="I186" s="6" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerSting.wav</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B184" t="s">
-        <v>15</v>
-      </c>
-      <c r="C184" t="s">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" t="s">
         <v>538</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D187" t="s">
         <v>539</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F187" t="s">
         <v>540</v>
       </c>
-      <c r="G184" t="s">
-        <v>104</v>
-      </c>
-      <c r="H184" t="s">
+      <c r="G187" t="s">
+        <v>104</v>
+      </c>
+      <c r="H187" t="s">
         <v>537</v>
       </c>
-      <c r="I184" s="6" t="str">
+      <c r="I187" s="6" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerSting.wav</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B185" t="s">
-        <v>15</v>
-      </c>
-      <c r="C185" t="s">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" t="s">
         <v>541</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D188" t="s">
         <v>542</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F188" t="s">
         <v>543</v>
       </c>
-      <c r="G185" t="s">
-        <v>104</v>
-      </c>
-      <c r="H185" t="s">
+      <c r="G188" t="s">
+        <v>104</v>
+      </c>
+      <c r="H188" t="s">
         <v>537</v>
       </c>
-      <c r="I185" s="6" t="str">
+      <c r="I188" s="6" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerSting.wav</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B186" t="s">
-        <v>15</v>
-      </c>
-      <c r="C186" t="s">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" t="s">
         <v>544</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D189" t="s">
         <v>545</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F189" t="s">
         <v>546</v>
       </c>
-      <c r="G186" t="s">
-        <v>104</v>
-      </c>
-      <c r="H186" t="s">
+      <c r="G189" t="s">
+        <v>104</v>
+      </c>
+      <c r="H189" t="s">
         <v>547</v>
       </c>
-      <c r="I186" s="6" t="str">
+      <c r="I189" s="6" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerRocket.wav</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B187" t="s">
-        <v>15</v>
-      </c>
-      <c r="C187" t="s">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" t="s">
         <v>548</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D190" t="s">
         <v>549</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F190" t="s">
         <v>550</v>
       </c>
-      <c r="G187" t="s">
-        <v>104</v>
-      </c>
-      <c r="H187" t="s">
+      <c r="G190" t="s">
+        <v>104</v>
+      </c>
+      <c r="H190" t="s">
         <v>547</v>
       </c>
-      <c r="I187" s="6" t="str">
+      <c r="I190" s="6" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerRocket.wav</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B188" t="s">
-        <v>15</v>
-      </c>
-      <c r="C188" t="s">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
+        <v>15</v>
+      </c>
+      <c r="C191" t="s">
         <v>551</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D191" t="s">
         <v>552</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F191" t="s">
         <v>553</v>
       </c>
-      <c r="G188" t="s">
-        <v>104</v>
-      </c>
-      <c r="H188" t="s">
+      <c r="G191" t="s">
+        <v>104</v>
+      </c>
+      <c r="H191" t="s">
         <v>547</v>
       </c>
-      <c r="I188" s="6" t="str">
+      <c r="I191" s="6" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerRocket.wav</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B189" t="s">
-        <v>15</v>
-      </c>
-      <c r="C189" t="s">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" t="s">
         <v>554</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D192" t="s">
         <v>555</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F192" t="s">
         <v>556</v>
       </c>
-      <c r="G189" t="s">
-        <v>104</v>
-      </c>
-      <c r="H189" t="s">
+      <c r="G192" t="s">
+        <v>104</v>
+      </c>
+      <c r="H192" t="s">
         <v>557</v>
       </c>
-      <c r="I189" s="6" t="str">
+      <c r="I192" s="6" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerFireOrb.wav</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B190" t="s">
-        <v>15</v>
-      </c>
-      <c r="C190" t="s">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193" t="s">
         <v>558</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D193" t="s">
         <v>559</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F193" t="s">
         <v>560</v>
       </c>
-      <c r="G190" t="s">
-        <v>104</v>
-      </c>
-      <c r="H190" t="s">
+      <c r="G193" t="s">
+        <v>104</v>
+      </c>
+      <c r="H193" t="s">
         <v>557</v>
       </c>
-      <c r="I190" s="6" t="str">
+      <c r="I193" s="6" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerFireOrb.wav</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B191" t="s">
-        <v>15</v>
-      </c>
-      <c r="C191" t="s">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194" t="s">
         <v>561</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D194" t="s">
         <v>562</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F194" t="s">
         <v>563</v>
       </c>
-      <c r="G191" t="s">
-        <v>104</v>
-      </c>
-      <c r="H191" t="s">
+      <c r="G194" t="s">
+        <v>104</v>
+      </c>
+      <c r="H194" t="s">
         <v>557</v>
       </c>
-      <c r="I191" s="6" t="str">
+      <c r="I194" s="6" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerFireOrb.wav</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D195" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="G195" t="s">
+        <v>104</v>
+      </c>
+      <c r="H195" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="I195" s="6" t="str">
+        <f t="shared" ref="I195:I197" si="11">G195&amp;"/"&amp;H195</f>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBomb.wav</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D196" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="G196" t="s">
+        <v>104</v>
+      </c>
+      <c r="H196" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="I196" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBomb.wav</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D197" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="G197" t="s">
+        <v>104</v>
+      </c>
+      <c r="H197" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="I197" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBomb.wav</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResAudioCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResAudioCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31433652-4323-42EC-BC0A-0FEB2F80DE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C69D9B0-4913-48C2-888E-1A140C4901AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="595">
   <si>
     <t>##var</t>
   </si>
@@ -853,33 +853,6 @@
     <t>电磁塔开火音效3</t>
   </si>
   <si>
-    <t>FireTowerCritTotem1</t>
-  </si>
-  <si>
-    <t>ResAudio_FireTowerCritTotem1</t>
-  </si>
-  <si>
-    <t>暴击图腾开火音效1</t>
-  </si>
-  <si>
-    <t>FireTowerCritTotem2</t>
-  </si>
-  <si>
-    <t>ResAudio_FireTowerCritTotem2</t>
-  </si>
-  <si>
-    <t>暴击图腾开火音效2</t>
-  </si>
-  <si>
-    <t>FireTowerCritTotem3</t>
-  </si>
-  <si>
-    <t>ResAudio_FireTowerCritTotem3</t>
-  </si>
-  <si>
-    <t>暴击图腾开火音效3</t>
-  </si>
-  <si>
     <t>FireTowerHellFire1</t>
   </si>
   <si>
@@ -1544,33 +1517,6 @@
   </si>
   <si>
     <t>电磁塔命中音效3</t>
-  </si>
-  <si>
-    <t>HitTowerCritTotem1</t>
-  </si>
-  <si>
-    <t>ResAudio_HitTowerCritTotem1</t>
-  </si>
-  <si>
-    <t>暴击图腾命中音效1</t>
-  </si>
-  <si>
-    <t>HitTowerCritTotem2</t>
-  </si>
-  <si>
-    <t>ResAudio_HitTowerCritTotem2</t>
-  </si>
-  <si>
-    <t>暴击图腾命中音效2</t>
-  </si>
-  <si>
-    <t>HitTowerCritTotem3</t>
-  </si>
-  <si>
-    <t>ResAudio_HitTowerCritTotem3</t>
-  </si>
-  <si>
-    <t>暴击图腾命中音效3</t>
   </si>
   <si>
     <t>HitTowerHellFire1</t>
@@ -1877,6 +1823,116 @@
   </si>
   <si>
     <t>ResAudio_HitTowerBomb3</t>
+  </si>
+  <si>
+    <t>水晶开火音效1</t>
+  </si>
+  <si>
+    <t>水晶开火音效2</t>
+  </si>
+  <si>
+    <t>水晶开火音效3</t>
+  </si>
+  <si>
+    <t>水晶命中音效1</t>
+  </si>
+  <si>
+    <t>水晶命中音效2</t>
+  </si>
+  <si>
+    <t>水晶命中音效3</t>
+  </si>
+  <si>
+    <t>FireTowerFire1</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerFire1</t>
+  </si>
+  <si>
+    <t>FireTowerFire2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerFire2</t>
+  </si>
+  <si>
+    <t>FireTowerFire3</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerFire3</t>
+  </si>
+  <si>
+    <t>HitTowerFire1</t>
+  </si>
+  <si>
+    <t>HitTowerFire2</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerFire2</t>
+  </si>
+  <si>
+    <t>HitTowerFire3</t>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerFire3</t>
+  </si>
+  <si>
+    <r>
+      <t>FireTowerFire1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.wav</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_HitTowerFire1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HitTowerFire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.wav</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerGolem1</t>
+  </si>
+  <si>
+    <t>FireTowerGolem.wav</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerGolem2</t>
+  </si>
+  <si>
+    <t>ResAudio_FireTowerGolem3</t>
+  </si>
+  <si>
+    <t>魔像开火音效1</t>
+  </si>
+  <si>
+    <t>魔像开火音效2</t>
+  </si>
+  <si>
+    <t>魔像开火音效3</t>
   </si>
 </sst>
 </file>
@@ -2294,10 +2350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA197"/>
+  <dimension ref="A1:AA200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D106" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:XFD124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2498,20 +2554,20 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
         <v>ResAudio_BossAppear</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="I6" s="6" t="str">
         <f t="shared" ref="I6:I12" si="0">G6&amp;"/"&amp;H6</f>
@@ -2536,7 +2592,7 @@
         <v>17</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="I7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2586,7 +2642,7 @@
         <v>17</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2611,7 +2667,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3490,7 +3546,7 @@
         <v>104</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" si="7"/>
@@ -3514,7 +3570,7 @@
         <v>104</v>
       </c>
       <c r="H54" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="I54" s="6" t="str">
         <f t="shared" si="7"/>
@@ -3538,7 +3594,7 @@
         <v>104</v>
       </c>
       <c r="H55" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="I55" s="6" t="str">
         <f t="shared" si="7"/>
@@ -4486,23 +4542,23 @@
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>256</v>
+        <v>574</v>
       </c>
       <c r="D95" t="s">
-        <v>257</v>
+        <v>575</v>
       </c>
       <c r="F95" t="s">
-        <v>258</v>
+        <v>568</v>
       </c>
       <c r="G95" t="s">
         <v>104</v>
       </c>
-      <c r="H95" t="s">
-        <v>144</v>
+      <c r="H95" s="8" t="s">
+        <v>585</v>
       </c>
       <c r="I95" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerFire1.wav</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.2">
@@ -4510,23 +4566,23 @@
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>259</v>
+        <v>576</v>
       </c>
       <c r="D96" t="s">
-        <v>260</v>
+        <v>577</v>
       </c>
       <c r="F96" t="s">
-        <v>261</v>
+        <v>569</v>
       </c>
       <c r="G96" t="s">
         <v>104</v>
       </c>
-      <c r="H96" t="s">
-        <v>144</v>
+      <c r="H96" s="8" t="s">
+        <v>585</v>
       </c>
       <c r="I96" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerFire1.wav</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
@@ -4534,23 +4590,23 @@
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>262</v>
+        <v>578</v>
       </c>
       <c r="D97" t="s">
-        <v>263</v>
+        <v>579</v>
       </c>
       <c r="F97" t="s">
-        <v>264</v>
+        <v>570</v>
       </c>
       <c r="G97" t="s">
         <v>104</v>
       </c>
-      <c r="H97" t="s">
-        <v>144</v>
+      <c r="H97" s="8" t="s">
+        <v>585</v>
       </c>
       <c r="I97" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerFire1.wav</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
@@ -4558,19 +4614,19 @@
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D98" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F98" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G98" t="s">
         <v>104</v>
       </c>
       <c r="H98" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="I98" s="6" t="str">
         <f t="shared" si="8"/>
@@ -4582,19 +4638,19 @@
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D99" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F99" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="G99" t="s">
         <v>104</v>
       </c>
       <c r="H99" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="I99" s="6" t="str">
         <f t="shared" si="8"/>
@@ -4606,19 +4662,19 @@
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D100" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F100" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G100" t="s">
         <v>104</v>
       </c>
       <c r="H100" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="I100" s="6" t="str">
         <f t="shared" si="8"/>
@@ -4630,13 +4686,13 @@
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D101" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F101" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G101" t="s">
         <v>104</v>
@@ -4654,13 +4710,13 @@
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D102" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F102" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G102" t="s">
         <v>104</v>
@@ -4678,13 +4734,13 @@
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D103" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F103" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="G103" t="s">
         <v>104</v>
@@ -4702,13 +4758,13 @@
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D104" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F104" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G104" t="s">
         <v>104</v>
@@ -4726,13 +4782,13 @@
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D105" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F105" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G105" t="s">
         <v>104</v>
@@ -4750,13 +4806,13 @@
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D106" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F106" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G106" t="s">
         <v>104</v>
@@ -4774,13 +4830,13 @@
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D107" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F107" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G107" t="s">
         <v>104</v>
@@ -4798,13 +4854,13 @@
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D108" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F108" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G108" t="s">
         <v>104</v>
@@ -4822,13 +4878,13 @@
         <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D109" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F109" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="G109" t="s">
         <v>104</v>
@@ -4846,19 +4902,19 @@
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D110" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F110" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G110" t="s">
         <v>104</v>
       </c>
       <c r="H110" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="I110" s="6" t="str">
         <f t="shared" si="8"/>
@@ -4870,19 +4926,19 @@
         <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D111" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F111" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G111" t="s">
         <v>104</v>
       </c>
       <c r="H111" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="I111" s="6" t="str">
         <f t="shared" si="8"/>
@@ -4894,19 +4950,19 @@
         <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D112" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F112" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G112" t="s">
         <v>104</v>
       </c>
       <c r="H112" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="I112" s="6" t="str">
         <f t="shared" si="8"/>
@@ -4918,19 +4974,19 @@
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D113" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F113" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G113" t="s">
         <v>104</v>
       </c>
       <c r="H113" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="I113" s="6" t="str">
         <f t="shared" si="8"/>
@@ -4942,19 +4998,19 @@
         <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D114" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F114" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G114" t="s">
         <v>104</v>
       </c>
       <c r="H114" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="I114" s="6" t="str">
         <f t="shared" si="8"/>
@@ -4966,22 +5022,22 @@
         <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D115" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F115" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G115" t="s">
         <v>104</v>
       </c>
       <c r="H115" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="I115" s="6" t="str">
-        <f t="shared" ref="I115:I182" si="9">G115&amp;"/"&amp;H115</f>
+        <f t="shared" ref="I115:I185" si="9">G115&amp;"/"&amp;H115</f>
         <v>Assets/ResAB/Audio/AudioBattle/FireTowerRocket.wav</v>
       </c>
     </row>
@@ -4990,19 +5046,19 @@
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D116" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F116" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G116" t="s">
         <v>104</v>
       </c>
       <c r="H116" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="I116" s="6" t="str">
         <f t="shared" si="9"/>
@@ -5014,19 +5070,19 @@
         <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D117" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F117" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G117" t="s">
         <v>104</v>
       </c>
       <c r="H117" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="I117" s="6" t="str">
         <f t="shared" si="9"/>
@@ -5038,19 +5094,19 @@
         <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D118" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F118" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G118" t="s">
         <v>104</v>
       </c>
       <c r="H118" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="I118" s="6" t="str">
         <f t="shared" si="9"/>
@@ -5059,16 +5115,16 @@
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D119" s="9" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="G119" t="s">
         <v>104</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="I119" s="6" t="str">
         <f t="shared" si="9"/>
@@ -5077,16 +5133,16 @@
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D120" s="9" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="G120" t="s">
         <v>104</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="I120" s="6" t="str">
         <f t="shared" si="9"/>
@@ -5095,250 +5151,232 @@
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D121" s="9" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="G121" t="s">
         <v>104</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="I121" s="6" t="str">
         <f t="shared" si="9"/>
         <v>Assets/ResAB/Audio/AudioBattle/FireTowerBomb.wav</v>
       </c>
     </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D122" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="G122" t="s">
+        <v>104</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="I122" s="6" t="str">
+        <f t="shared" ref="I122:I124" si="10">G122&amp;"/"&amp;H122</f>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerGolem.wav</v>
+      </c>
+    </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" t="s">
-        <v>332</v>
-      </c>
-      <c r="D123" t="s">
-        <v>333</v>
-      </c>
-      <c r="F123" t="s">
-        <v>334</v>
+      <c r="D123" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>593</v>
       </c>
       <c r="G123" t="s">
         <v>104</v>
       </c>
-      <c r="H123" t="s">
-        <v>335</v>
+      <c r="H123" s="8" t="s">
+        <v>589</v>
       </c>
       <c r="I123" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerGolem.wav</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D124" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="G124" t="s">
+        <v>104</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="I124" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerGolem.wav</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
+        <v>323</v>
+      </c>
+      <c r="D126" t="s">
+        <v>324</v>
+      </c>
+      <c r="F126" t="s">
+        <v>325</v>
+      </c>
+      <c r="G126" t="s">
+        <v>104</v>
+      </c>
+      <c r="H126" t="s">
+        <v>326</v>
+      </c>
+      <c r="I126" s="6" t="str">
         <f t="shared" si="9"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerArrow.wav</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" t="s">
-        <v>336</v>
-      </c>
-      <c r="D124" t="s">
-        <v>337</v>
-      </c>
-      <c r="F124" t="s">
-        <v>338</v>
-      </c>
-      <c r="G124" t="s">
-        <v>104</v>
-      </c>
-      <c r="H124" t="s">
-        <v>335</v>
-      </c>
-      <c r="I124" s="6" t="str">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>327</v>
+      </c>
+      <c r="D127" t="s">
+        <v>328</v>
+      </c>
+      <c r="F127" t="s">
+        <v>329</v>
+      </c>
+      <c r="G127" t="s">
+        <v>104</v>
+      </c>
+      <c r="H127" t="s">
+        <v>326</v>
+      </c>
+      <c r="I127" s="6" t="str">
         <f t="shared" si="9"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerArrow.wav</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
-        <v>15</v>
-      </c>
-      <c r="C125" t="s">
-        <v>339</v>
-      </c>
-      <c r="D125" t="s">
-        <v>340</v>
-      </c>
-      <c r="F125" t="s">
-        <v>341</v>
-      </c>
-      <c r="G125" t="s">
-        <v>104</v>
-      </c>
-      <c r="H125" t="s">
-        <v>335</v>
-      </c>
-      <c r="I125" s="6" t="str">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" t="s">
+        <v>330</v>
+      </c>
+      <c r="D128" t="s">
+        <v>331</v>
+      </c>
+      <c r="F128" t="s">
+        <v>332</v>
+      </c>
+      <c r="G128" t="s">
+        <v>104</v>
+      </c>
+      <c r="H128" t="s">
+        <v>326</v>
+      </c>
+      <c r="I128" s="6" t="str">
         <f t="shared" si="9"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerArrow.wav</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" t="s">
-        <v>342</v>
-      </c>
-      <c r="D126" t="s">
-        <v>343</v>
-      </c>
-      <c r="F126" t="s">
-        <v>344</v>
-      </c>
-      <c r="G126" t="s">
-        <v>104</v>
-      </c>
-      <c r="H126" t="s">
-        <v>345</v>
-      </c>
-      <c r="I126" s="6" t="str">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" t="s">
+        <v>333</v>
+      </c>
+      <c r="D129" t="s">
+        <v>334</v>
+      </c>
+      <c r="F129" t="s">
+        <v>335</v>
+      </c>
+      <c r="G129" t="s">
+        <v>104</v>
+      </c>
+      <c r="H129" t="s">
+        <v>336</v>
+      </c>
+      <c r="I129" s="6" t="str">
         <f t="shared" si="9"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerCannon.wav</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" t="s">
-        <v>346</v>
-      </c>
-      <c r="D127" t="s">
-        <v>347</v>
-      </c>
-      <c r="F127" t="s">
-        <v>348</v>
-      </c>
-      <c r="G127" t="s">
-        <v>104</v>
-      </c>
-      <c r="H127" t="s">
-        <v>345</v>
-      </c>
-      <c r="I127" s="6" t="str">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>337</v>
+      </c>
+      <c r="D130" t="s">
+        <v>338</v>
+      </c>
+      <c r="F130" t="s">
+        <v>339</v>
+      </c>
+      <c r="G130" t="s">
+        <v>104</v>
+      </c>
+      <c r="H130" t="s">
+        <v>336</v>
+      </c>
+      <c r="I130" s="6" t="str">
         <f t="shared" si="9"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerCannon.wav</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>15</v>
-      </c>
-      <c r="C128" t="s">
-        <v>349</v>
-      </c>
-      <c r="D128" t="s">
-        <v>350</v>
-      </c>
-      <c r="F128" t="s">
-        <v>351</v>
-      </c>
-      <c r="G128" t="s">
-        <v>104</v>
-      </c>
-      <c r="H128" t="s">
-        <v>345</v>
-      </c>
-      <c r="I128" s="6" t="str">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" t="s">
+        <v>340</v>
+      </c>
+      <c r="D131" t="s">
+        <v>341</v>
+      </c>
+      <c r="F131" t="s">
+        <v>342</v>
+      </c>
+      <c r="G131" t="s">
+        <v>104</v>
+      </c>
+      <c r="H131" t="s">
+        <v>336</v>
+      </c>
+      <c r="I131" s="6" t="str">
         <f t="shared" si="9"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerCannon.wav</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
-        <v>15</v>
-      </c>
-      <c r="C129" t="s">
-        <v>352</v>
-      </c>
-      <c r="D129" t="s">
-        <v>353</v>
-      </c>
-      <c r="F129" t="s">
-        <v>354</v>
-      </c>
-      <c r="G129" t="s">
-        <v>104</v>
-      </c>
-      <c r="H129" t="s">
-        <v>144</v>
-      </c>
-      <c r="I129" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
-        <v>15</v>
-      </c>
-      <c r="C130" t="s">
-        <v>355</v>
-      </c>
-      <c r="D130" t="s">
-        <v>356</v>
-      </c>
-      <c r="F130" t="s">
-        <v>357</v>
-      </c>
-      <c r="G130" t="s">
-        <v>104</v>
-      </c>
-      <c r="H130" t="s">
-        <v>144</v>
-      </c>
-      <c r="I130" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
-        <v>15</v>
-      </c>
-      <c r="C131" t="s">
-        <v>358</v>
-      </c>
-      <c r="D131" t="s">
-        <v>359</v>
-      </c>
-      <c r="F131" t="s">
-        <v>360</v>
-      </c>
-      <c r="G131" t="s">
-        <v>104</v>
-      </c>
-      <c r="H131" t="s">
-        <v>144</v>
-      </c>
-      <c r="I131" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
-      </c>
-    </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="D132" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="F132" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="G132" t="s">
         <v>104</v>
@@ -5356,13 +5394,13 @@
         <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="D133" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="F133" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="G133" t="s">
         <v>104</v>
@@ -5380,13 +5418,13 @@
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D134" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="F134" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="G134" t="s">
         <v>104</v>
@@ -5404,23 +5442,23 @@
         <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="D135" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="F135" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="G135" t="s">
         <v>104</v>
       </c>
       <c r="H135" t="s">
-        <v>373</v>
+        <v>144</v>
       </c>
       <c r="I135" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDragon.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.2">
@@ -5428,23 +5466,23 @@
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="D136" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="F136" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="G136" t="s">
         <v>104</v>
       </c>
       <c r="H136" t="s">
-        <v>373</v>
+        <v>144</v>
       </c>
       <c r="I136" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDragon.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.2">
@@ -5452,23 +5490,23 @@
         <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="D137" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="F137" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="G137" t="s">
         <v>104</v>
       </c>
       <c r="H137" t="s">
-        <v>373</v>
+        <v>144</v>
       </c>
       <c r="I137" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDragon.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.2">
@@ -5476,23 +5514,23 @@
         <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="D138" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="F138" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="G138" t="s">
         <v>104</v>
       </c>
       <c r="H138" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="I138" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThunder.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDragon.wav</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.2">
@@ -5500,23 +5538,23 @@
         <v>15</v>
       </c>
       <c r="C139" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="D139" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="F139" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="G139" t="s">
         <v>104</v>
       </c>
       <c r="H139" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="I139" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThunder.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDragon.wav</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.2">
@@ -5524,23 +5562,23 @@
         <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="D140" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="F140" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="G140" t="s">
         <v>104</v>
       </c>
       <c r="H140" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="I140" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThunder.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDragon.wav</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.2">
@@ -5548,23 +5586,23 @@
         <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="D141" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="F141" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="G141" t="s">
         <v>104</v>
       </c>
       <c r="H141" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="I141" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIce.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThunder.wav</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.2">
@@ -5572,23 +5610,23 @@
         <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="D142" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="F142" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="G142" t="s">
         <v>104</v>
       </c>
       <c r="H142" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="I142" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIce.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThunder.wav</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.2">
@@ -5596,23 +5634,23 @@
         <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="D143" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="F143" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="G143" t="s">
         <v>104</v>
       </c>
       <c r="H143" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="I143" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIce.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThunder.wav</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.2">
@@ -5620,23 +5658,23 @@
         <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="D144" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="F144" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="G144" t="s">
         <v>104</v>
       </c>
       <c r="H144" t="s">
-        <v>144</v>
+        <v>384</v>
       </c>
       <c r="I144" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIce.wav</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.2">
@@ -5644,23 +5682,23 @@
         <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D145" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="F145" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="G145" t="s">
         <v>104</v>
       </c>
       <c r="H145" t="s">
-        <v>144</v>
+        <v>384</v>
       </c>
       <c r="I145" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIce.wav</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.2">
@@ -5668,23 +5706,23 @@
         <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="D146" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="F146" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="G146" t="s">
         <v>104</v>
       </c>
       <c r="H146" t="s">
-        <v>144</v>
+        <v>384</v>
       </c>
       <c r="I146" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIce.wav</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.2">
@@ -5692,23 +5730,23 @@
         <v>15</v>
       </c>
       <c r="C147" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="D147" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="F147" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="G147" t="s">
         <v>104</v>
       </c>
       <c r="H147" t="s">
-        <v>412</v>
+        <v>144</v>
       </c>
       <c r="I147" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerMystOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.2">
@@ -5716,23 +5754,23 @@
         <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="D148" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="F148" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="G148" t="s">
         <v>104</v>
       </c>
       <c r="H148" t="s">
-        <v>412</v>
+        <v>144</v>
       </c>
       <c r="I148" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerMystOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.2">
@@ -5740,23 +5778,23 @@
         <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="D149" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="F149" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="G149" t="s">
         <v>104</v>
       </c>
       <c r="H149" t="s">
-        <v>412</v>
+        <v>144</v>
       </c>
       <c r="I149" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerMystOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.2">
@@ -5764,23 +5802,23 @@
         <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="D150" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="F150" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="G150" t="s">
         <v>104</v>
       </c>
       <c r="H150" t="s">
-        <v>144</v>
+        <v>403</v>
       </c>
       <c r="I150" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerMystOrb.wav</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.2">
@@ -5788,23 +5826,23 @@
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="D151" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="F151" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="G151" t="s">
         <v>104</v>
       </c>
       <c r="H151" t="s">
-        <v>144</v>
+        <v>403</v>
       </c>
       <c r="I151" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerMystOrb.wav</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.2">
@@ -5812,23 +5850,23 @@
         <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="D152" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="F152" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="G152" t="s">
         <v>104</v>
       </c>
       <c r="H152" t="s">
-        <v>144</v>
+        <v>403</v>
       </c>
       <c r="I152" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerMystOrb.wav</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.2">
@@ -5836,23 +5874,23 @@
         <v>15</v>
       </c>
       <c r="C153" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="D153" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="F153" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="G153" t="s">
         <v>104</v>
       </c>
       <c r="H153" t="s">
-        <v>431</v>
+        <v>144</v>
       </c>
       <c r="I153" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerScorpio.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.2">
@@ -5860,23 +5898,23 @@
         <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="D154" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="F154" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="G154" t="s">
         <v>104</v>
       </c>
       <c r="H154" t="s">
-        <v>431</v>
+        <v>144</v>
       </c>
       <c r="I154" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerScorpio.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.2">
@@ -5884,23 +5922,23 @@
         <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="D155" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="F155" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="G155" t="s">
         <v>104</v>
       </c>
       <c r="H155" t="s">
-        <v>431</v>
+        <v>144</v>
       </c>
       <c r="I155" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerScorpio.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.2">
@@ -5908,23 +5946,23 @@
         <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="D156" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="F156" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="G156" t="s">
         <v>104</v>
       </c>
       <c r="H156" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="I156" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBreaker.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerScorpio.wav</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.2">
@@ -5932,23 +5970,23 @@
         <v>15</v>
       </c>
       <c r="C157" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="D157" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="F157" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="G157" t="s">
         <v>104</v>
       </c>
       <c r="H157" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="I157" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBreaker.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerScorpio.wav</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.2">
@@ -5956,23 +5994,23 @@
         <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="D158" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="F158" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="G158" t="s">
         <v>104</v>
       </c>
       <c r="H158" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="I158" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBreaker.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerScorpio.wav</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.2">
@@ -5980,23 +6018,23 @@
         <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="D159" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F159" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="G159" t="s">
         <v>104</v>
       </c>
       <c r="H159" t="s">
-        <v>144</v>
+        <v>432</v>
       </c>
       <c r="I159" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBreaker.wav</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.2">
@@ -6004,23 +6042,23 @@
         <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="D160" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="F160" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="G160" t="s">
         <v>104</v>
       </c>
       <c r="H160" t="s">
-        <v>144</v>
+        <v>432</v>
       </c>
       <c r="I160" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBreaker.wav</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.2">
@@ -6028,23 +6066,23 @@
         <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="D161" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="F161" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="G161" t="s">
         <v>104</v>
       </c>
       <c r="H161" t="s">
-        <v>144</v>
+        <v>432</v>
       </c>
       <c r="I161" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBreaker.wav</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.2">
@@ -6052,23 +6090,23 @@
         <v>15</v>
       </c>
       <c r="C162" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="D162" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="F162" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="G162" t="s">
         <v>104</v>
       </c>
       <c r="H162" t="s">
-        <v>460</v>
+        <v>144</v>
       </c>
       <c r="I162" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIceArrow.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.2">
@@ -6076,23 +6114,23 @@
         <v>15</v>
       </c>
       <c r="C163" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="D163" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="F163" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="G163" t="s">
         <v>104</v>
       </c>
       <c r="H163" t="s">
-        <v>460</v>
+        <v>144</v>
       </c>
       <c r="I163" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIceArrow.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.2">
@@ -6100,23 +6138,23 @@
         <v>15</v>
       </c>
       <c r="C164" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="D164" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="F164" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="G164" t="s">
         <v>104</v>
       </c>
       <c r="H164" t="s">
-        <v>460</v>
+        <v>144</v>
       </c>
       <c r="I164" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIceArrow.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.2">
@@ -6124,23 +6162,23 @@
         <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="D165" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="F165" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="G165" t="s">
         <v>104</v>
       </c>
       <c r="H165" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="I165" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDizzyOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIceArrow.wav</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.2">
@@ -6148,23 +6186,23 @@
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="D166" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="F166" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="G166" t="s">
         <v>104</v>
       </c>
       <c r="H166" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="I166" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDizzyOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIceArrow.wav</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.2">
@@ -6172,23 +6210,23 @@
         <v>15</v>
       </c>
       <c r="C167" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="D167" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="F167" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="G167" t="s">
         <v>104</v>
       </c>
       <c r="H167" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="I167" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDizzyOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIceArrow.wav</v>
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.2">
@@ -6196,23 +6234,23 @@
         <v>15</v>
       </c>
       <c r="C168" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="D168" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="F168" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="G168" t="s">
         <v>104</v>
       </c>
       <c r="H168" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="I168" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerTesla.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDizzyOrb.wav</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.2">
@@ -6220,23 +6258,23 @@
         <v>15</v>
       </c>
       <c r="C169" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="D169" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="F169" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="G169" t="s">
         <v>104</v>
       </c>
       <c r="H169" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="I169" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerTesla.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDizzyOrb.wav</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.2">
@@ -6244,23 +6282,23 @@
         <v>15</v>
       </c>
       <c r="C170" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="D170" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="F170" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="G170" t="s">
         <v>104</v>
       </c>
       <c r="H170" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="I170" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerTesla.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDizzyOrb.wav</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.2">
@@ -6268,23 +6306,23 @@
         <v>15</v>
       </c>
       <c r="C171" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="D171" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="F171" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="G171" t="s">
         <v>104</v>
       </c>
       <c r="H171" t="s">
-        <v>144</v>
+        <v>471</v>
       </c>
       <c r="I171" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerTesla.wav</v>
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.2">
@@ -6292,23 +6330,23 @@
         <v>15</v>
       </c>
       <c r="C172" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="D172" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="F172" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="G172" t="s">
         <v>104</v>
       </c>
       <c r="H172" t="s">
-        <v>144</v>
+        <v>471</v>
       </c>
       <c r="I172" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerTesla.wav</v>
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.2">
@@ -6316,23 +6354,23 @@
         <v>15</v>
       </c>
       <c r="C173" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="D173" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="F173" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="G173" t="s">
         <v>104</v>
       </c>
       <c r="H173" t="s">
-        <v>144</v>
+        <v>471</v>
       </c>
       <c r="I173" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerTesla.wav</v>
       </c>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.2">
@@ -6340,23 +6378,23 @@
         <v>15</v>
       </c>
       <c r="C174" t="s">
-        <v>496</v>
-      </c>
-      <c r="D174" t="s">
-        <v>497</v>
+        <v>580</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>586</v>
       </c>
       <c r="F174" t="s">
-        <v>498</v>
+        <v>571</v>
       </c>
       <c r="G174" t="s">
         <v>104</v>
       </c>
-      <c r="H174" t="s">
-        <v>499</v>
+      <c r="H174" s="8" t="s">
+        <v>587</v>
       </c>
       <c r="I174" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerHellFire.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerFire1.wav</v>
       </c>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.2">
@@ -6364,23 +6402,23 @@
         <v>15</v>
       </c>
       <c r="C175" t="s">
-        <v>500</v>
+        <v>581</v>
       </c>
       <c r="D175" t="s">
-        <v>501</v>
+        <v>582</v>
       </c>
       <c r="F175" t="s">
-        <v>502</v>
+        <v>572</v>
       </c>
       <c r="G175" t="s">
         <v>104</v>
       </c>
-      <c r="H175" t="s">
-        <v>499</v>
+      <c r="H175" s="8" t="s">
+        <v>587</v>
       </c>
       <c r="I175" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerHellFire.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerFire1.wav</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.2">
@@ -6388,23 +6426,23 @@
         <v>15</v>
       </c>
       <c r="C176" t="s">
-        <v>503</v>
+        <v>583</v>
       </c>
       <c r="D176" t="s">
-        <v>504</v>
+        <v>584</v>
       </c>
       <c r="F176" t="s">
-        <v>505</v>
+        <v>573</v>
       </c>
       <c r="G176" t="s">
         <v>104</v>
       </c>
-      <c r="H176" t="s">
-        <v>499</v>
+      <c r="H176" s="8" t="s">
+        <v>587</v>
       </c>
       <c r="I176" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerHellFire.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerFire1.wav</v>
       </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.2">
@@ -6412,23 +6450,23 @@
         <v>15</v>
       </c>
       <c r="C177" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="D177" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="F177" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="G177" t="s">
         <v>104</v>
       </c>
       <c r="H177" t="s">
-        <v>144</v>
+        <v>481</v>
       </c>
       <c r="I177" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerHellFire.wav</v>
       </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.2">
@@ -6436,23 +6474,23 @@
         <v>15</v>
       </c>
       <c r="C178" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="D178" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
       <c r="F178" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
       <c r="G178" t="s">
         <v>104</v>
       </c>
       <c r="H178" t="s">
-        <v>144</v>
+        <v>481</v>
       </c>
       <c r="I178" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerHellFire.wav</v>
       </c>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.2">
@@ -6460,23 +6498,23 @@
         <v>15</v>
       </c>
       <c r="C179" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
       <c r="D179" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="F179" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
       <c r="G179" t="s">
         <v>104</v>
       </c>
       <c r="H179" t="s">
-        <v>144</v>
+        <v>481</v>
       </c>
       <c r="I179" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerHellFire.wav</v>
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.2">
@@ -6484,13 +6522,13 @@
         <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>515</v>
+        <v>488</v>
       </c>
       <c r="D180" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="F180" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
       <c r="G180" t="s">
         <v>104</v>
@@ -6508,13 +6546,13 @@
         <v>15</v>
       </c>
       <c r="C181" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="D181" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="F181" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="G181" t="s">
         <v>104</v>
@@ -6532,13 +6570,13 @@
         <v>15</v>
       </c>
       <c r="C182" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
       <c r="D182" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="F182" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="G182" t="s">
         <v>104</v>
@@ -6556,23 +6594,23 @@
         <v>15</v>
       </c>
       <c r="C183" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="D183" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="F183" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="G183" t="s">
         <v>104</v>
       </c>
       <c r="H183" t="s">
-        <v>527</v>
+        <v>144</v>
       </c>
       <c r="I183" s="6" t="str">
-        <f t="shared" ref="I183:I194" si="10">G183&amp;"/"&amp;H183</f>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThief.wav</v>
+        <f t="shared" si="9"/>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.2">
@@ -6580,23 +6618,23 @@
         <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="D184" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="F184" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="G184" t="s">
         <v>104</v>
       </c>
       <c r="H184" t="s">
-        <v>527</v>
+        <v>144</v>
       </c>
       <c r="I184" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThief.wav</v>
+        <f t="shared" si="9"/>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.2">
@@ -6604,23 +6642,23 @@
         <v>15</v>
       </c>
       <c r="C185" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="D185" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="F185" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="G185" t="s">
         <v>104</v>
       </c>
       <c r="H185" t="s">
-        <v>527</v>
+        <v>144</v>
       </c>
       <c r="I185" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThief.wav</v>
+        <f t="shared" si="9"/>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.2">
@@ -6628,23 +6666,23 @@
         <v>15</v>
       </c>
       <c r="C186" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="D186" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="F186" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="G186" t="s">
         <v>104</v>
       </c>
       <c r="H186" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="I186" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerSting.wav</v>
+        <f t="shared" ref="I186:I197" si="11">G186&amp;"/"&amp;H186</f>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThief.wav</v>
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.2">
@@ -6652,23 +6690,23 @@
         <v>15</v>
       </c>
       <c r="C187" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="D187" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="F187" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="G187" t="s">
         <v>104</v>
       </c>
       <c r="H187" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="I187" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerSting.wav</v>
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThief.wav</v>
       </c>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.2">
@@ -6676,23 +6714,23 @@
         <v>15</v>
       </c>
       <c r="C188" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="D188" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="F188" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="G188" t="s">
         <v>104</v>
       </c>
       <c r="H188" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="I188" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerSting.wav</v>
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThief.wav</v>
       </c>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.2">
@@ -6700,23 +6738,23 @@
         <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="D189" t="s">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="F189" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="G189" t="s">
         <v>104</v>
       </c>
       <c r="H189" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="I189" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerRocket.wav</v>
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerSting.wav</v>
       </c>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.2">
@@ -6724,23 +6762,23 @@
         <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="D190" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="F190" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="G190" t="s">
         <v>104</v>
       </c>
       <c r="H190" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="I190" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerRocket.wav</v>
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerSting.wav</v>
       </c>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.2">
@@ -6748,23 +6786,23 @@
         <v>15</v>
       </c>
       <c r="C191" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="D191" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="F191" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
       <c r="G191" t="s">
         <v>104</v>
       </c>
       <c r="H191" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="I191" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerRocket.wav</v>
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerSting.wav</v>
       </c>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.2">
@@ -6772,23 +6810,23 @@
         <v>15</v>
       </c>
       <c r="C192" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
       <c r="D192" t="s">
-        <v>555</v>
+        <v>527</v>
       </c>
       <c r="F192" t="s">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="G192" t="s">
         <v>104</v>
       </c>
       <c r="H192" t="s">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="I192" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerFireOrb.wav</v>
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerRocket.wav</v>
       </c>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.2">
@@ -6796,23 +6834,23 @@
         <v>15</v>
       </c>
       <c r="C193" t="s">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="D193" t="s">
-        <v>559</v>
+        <v>531</v>
       </c>
       <c r="F193" t="s">
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="G193" t="s">
         <v>104</v>
       </c>
       <c r="H193" t="s">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="I193" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerFireOrb.wav</v>
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerRocket.wav</v>
       </c>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.2">
@@ -6820,76 +6858,148 @@
         <v>15</v>
       </c>
       <c r="C194" t="s">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="D194" t="s">
-        <v>562</v>
+        <v>534</v>
       </c>
       <c r="F194" t="s">
-        <v>563</v>
+        <v>535</v>
       </c>
       <c r="G194" t="s">
         <v>104</v>
       </c>
       <c r="H194" t="s">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="I194" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerRocket.wav</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" t="s">
+        <v>536</v>
+      </c>
+      <c r="D195" t="s">
+        <v>537</v>
+      </c>
+      <c r="F195" t="s">
+        <v>538</v>
+      </c>
+      <c r="G195" t="s">
+        <v>104</v>
+      </c>
+      <c r="H195" t="s">
+        <v>539</v>
+      </c>
+      <c r="I195" s="6" t="str">
+        <f t="shared" si="11"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerFireOrb.wav</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D195" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="F195" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="G195" t="s">
-        <v>104</v>
-      </c>
-      <c r="H195" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="I195" s="6" t="str">
-        <f t="shared" ref="I195:I197" si="11">G195&amp;"/"&amp;H195</f>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBomb.wav</v>
-      </c>
-    </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D196" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="F196" s="8" t="s">
-        <v>577</v>
+      <c r="B196" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196" t="s">
+        <v>540</v>
+      </c>
+      <c r="D196" t="s">
+        <v>541</v>
+      </c>
+      <c r="F196" t="s">
+        <v>542</v>
       </c>
       <c r="G196" t="s">
         <v>104</v>
       </c>
-      <c r="H196" s="8" t="s">
-        <v>579</v>
+      <c r="H196" t="s">
+        <v>539</v>
       </c>
       <c r="I196" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBomb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerFireOrb.wav</v>
       </c>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D197" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="F197" s="8" t="s">
-        <v>578</v>
+      <c r="B197" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197" t="s">
+        <v>543</v>
+      </c>
+      <c r="D197" t="s">
+        <v>544</v>
+      </c>
+      <c r="F197" t="s">
+        <v>545</v>
       </c>
       <c r="G197" t="s">
         <v>104</v>
       </c>
-      <c r="H197" s="8" t="s">
-        <v>579</v>
+      <c r="H197" t="s">
+        <v>539</v>
       </c>
       <c r="I197" s="6" t="str">
         <f t="shared" si="11"/>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerFireOrb.wav</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D198" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="G198" t="s">
+        <v>104</v>
+      </c>
+      <c r="H198" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="I198" s="6" t="str">
+        <f t="shared" ref="I198:I200" si="12">G198&amp;"/"&amp;H198</f>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBomb.wav</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D199" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="G199" t="s">
+        <v>104</v>
+      </c>
+      <c r="H199" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="I199" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBomb.wav</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D200" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="G200" t="s">
+        <v>104</v>
+      </c>
+      <c r="H200" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="I200" s="6" t="str">
+        <f t="shared" si="12"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerBomb.wav</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResAudioCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResAudioCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C69D9B0-4913-48C2-888E-1A140C4901AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96042624-6C05-4E33-9EF5-C442E01CC47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="598">
   <si>
     <t>##var</t>
   </si>
@@ -1933,6 +1933,31 @@
   </si>
   <si>
     <t>魔像开火音效3</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>esAudio_BaseDie</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大本营死亡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/AudioBattle/BaseDie.wav</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2350,10 +2375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA200"/>
+  <dimension ref="A1:AA201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2724,29 +2749,15 @@
         <v>Assets/ResAB/Audio/AudioBattle/circle.wav</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="str">
-        <f>B14&amp;"_"&amp;C14</f>
-        <v>ResAudio_UI_ready_go</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="6" t="str">
-        <f>G14&amp;"/"&amp;H14</f>
-        <v>Assets/ResAB/Audio/AudioUI/begin.wav</v>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D13" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -2754,21 +2765,24 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15" t="str">
         <f>B15&amp;"_"&amp;C15</f>
-        <v>ResAudio_UI_victory</v>
+        <v>ResAudio_UI_ready_go</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I15" s="6" t="str">
-        <f t="shared" ref="I15:I21" si="2">G15&amp;"/"&amp;H15</f>
-        <v>Assets/ResAB/Audio/AudioUI/victory.wav</v>
+        <f>G15&amp;"/"&amp;H15</f>
+        <v>Assets/ResAB/Audio/AudioUI/begin.wav</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -2776,165 +2790,162 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" t="str">
         <f>B16&amp;"_"&amp;C16</f>
-        <v>ResAudio_UI_failed</v>
+        <v>ResAudio_UI_victory</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
       </c>
       <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="6" t="str">
+        <f t="shared" ref="I16:I22" si="2">G16&amp;"/"&amp;H16</f>
+        <v>Assets/ResAB/Audio/AudioUI/victory.wav</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="str">
+        <f>B17&amp;"_"&amp;C17</f>
+        <v>ResAudio_UI_failed</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="6" t="str">
+      <c r="I17" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Assets/ResAB/Audio/AudioUI/failed.mp3</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="5" t="str">
-        <f>B18&amp;"_"&amp;C18</f>
-        <v>ResAudio_UI_Click</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="6" t="str">
-        <f>G18&amp;"/"&amp;H18</f>
-        <v>Assets/ResAB/Audio/AudioUI/click.wav</v>
-      </c>
-    </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="5" t="str">
         <f>B19&amp;"_"&amp;C19</f>
-        <v>ResAudio_UI_Back</v>
+        <v>ResAudio_UI_Click</v>
       </c>
       <c r="G19" t="s">
         <v>29</v>
       </c>
       <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="6" t="str">
+        <f>G19&amp;"/"&amp;H19</f>
+        <v>Assets/ResAB/Audio/AudioUI/click.wav</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f>B20&amp;"_"&amp;C20</f>
+        <v>ResAudio_UI_Back</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="6" t="str">
+      <c r="I20" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Assets/ResAB/Audio/AudioUI/back.wav</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="5" t="str">
-        <f>B20&amp;"_"&amp;C20</f>
+      <c r="D21" s="5" t="str">
+        <f>B21&amp;"_"&amp;C21</f>
         <v>ResAudio_UI_Confirm</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>29</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="6" t="str">
+      <c r="I21" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Assets/ResAB/Audio/AudioUI/click.wav</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="5" t="str">
-        <f>B21&amp;"_"&amp;C21</f>
+      <c r="D22" s="5" t="str">
+        <f>B22&amp;"_"&amp;C22</f>
         <v>ResAudio_TowerPush</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>42</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>29</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="6" t="str">
+      <c r="I22" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Assets/ResAB/Audio/AudioUI/place.wav</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="5" t="str">
-        <f>B23&amp;"_"&amp;C23</f>
-        <v>ResAudio_UI_Pop-up</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="6" t="str">
-        <f>G23&amp;"/"&amp;H23</f>
-        <v>Assets/ResAB/Audio/AudioUI/Pop-up.wav</v>
-      </c>
-    </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D24" s="5" t="str">
         <f>B24&amp;"_"&amp;C24</f>
-        <v>ResAudio_UI_Join</v>
+        <v>ResAudio_UI_Pop-up</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I24" s="6" t="str">
         <f>G24&amp;"/"&amp;H24</f>
-        <v>Assets/ResAB/Audio/AudioUI/join.wav</v>
+        <v>Assets/ResAB/Audio/AudioUI/Pop-up.wav</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
@@ -2942,24 +2953,24 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="5" t="str">
         <f>B25&amp;"_"&amp;C25</f>
-        <v>ResAudio_UI_Quit</v>
+        <v>ResAudio_UI_Join</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I25" s="6" t="str">
         <f>G25&amp;"/"&amp;H25</f>
-        <v>Assets/ResAB/Audio/AudioUI/quit.wav</v>
+        <v>Assets/ResAB/Audio/AudioUI/join.wav</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
@@ -2967,24 +2978,24 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D26" s="5" t="str">
         <f>B26&amp;"_"&amp;C26</f>
-        <v>ResAudio_UI_Reward</v>
+        <v>ResAudio_UI_Quit</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I26" s="6" t="str">
         <f>G26&amp;"/"&amp;H26</f>
-        <v>Assets/ResAB/Audio/AudioUI/reward.wav</v>
+        <v>Assets/ResAB/Audio/AudioUI/quit.wav</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
@@ -2992,24 +3003,24 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D27" s="5" t="str">
         <f>B27&amp;"_"&amp;C27</f>
-        <v>ResAudio_UI_Scan</v>
+        <v>ResAudio_UI_Reward</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G27" t="s">
         <v>29</v>
       </c>
       <c r="H27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I27" s="6" t="str">
         <f>G27&amp;"/"&amp;H27</f>
-        <v>Assets/ResAB/Audio/AudioUI/scan.wav</v>
+        <v>Assets/ResAB/Audio/AudioUI/reward.wav</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
@@ -3017,24 +3028,24 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D28" s="5" t="str">
-        <f t="shared" ref="D28:D35" si="3">B28&amp;"_"&amp;C28</f>
-        <v>ResAudio_UI_Upgradation</v>
+        <f>B28&amp;"_"&amp;C28</f>
+        <v>ResAudio_UI_Scan</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
         <v>29</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I28" s="6" t="str">
-        <f t="shared" ref="I28:I35" si="4">G28&amp;"/"&amp;H28</f>
-        <v>Assets/ResAB/Audio/AudioUI/upgradation.wav</v>
+        <f>G28&amp;"/"&amp;H28</f>
+        <v>Assets/ResAB/Audio/AudioUI/scan.wav</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
@@ -3042,221 +3053,224 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="5" t="str">
+        <f t="shared" ref="D29:D36" si="3">B29&amp;"_"&amp;C29</f>
+        <v>ResAudio_UI_Upgradation</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="6" t="str">
+        <f t="shared" ref="I29:I36" si="4">G29&amp;"/"&amp;H29</f>
+        <v>Assets/ResAB/Audio/AudioUI/upgradation.wav</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="5" t="str">
+      <c r="D30" s="5" t="str">
         <f t="shared" si="3"/>
         <v>ResAudio_UI_Recovery</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>29</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="6" t="str">
+      <c r="I30" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Assets/ResAB/Audio/AudioUI/recovery.wav</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="5" t="str">
+      <c r="D31" s="5" t="str">
         <f t="shared" si="3"/>
         <v>ResAudio_UI_Buy</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>29</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H31" t="s">
         <v>67</v>
       </c>
-      <c r="I30" s="6" t="str">
+      <c r="I31" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Assets/ResAB/Audio/AudioUI/buy.wav</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="5" t="str">
+      <c r="D32" s="5" t="str">
         <f t="shared" si="3"/>
         <v>ResAudio_UI_Sell</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G32" t="s">
         <v>29</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" t="s">
         <v>70</v>
       </c>
-      <c r="I31" s="6" t="str">
+      <c r="I32" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Assets/ResAB/Audio/AudioUI/sell.wav</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="5" t="str">
+      <c r="D33" s="5" t="str">
         <f t="shared" si="3"/>
         <v>ResAudio_UI_Victory</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>29</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H33" t="s">
         <v>73</v>
       </c>
-      <c r="I32" s="6" t="str">
+      <c r="I33" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Assets/ResAB/Audio/AudioUI/victory_1.wav</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="5" t="str">
+      <c r="D34" s="5" t="str">
         <f t="shared" si="3"/>
         <v>ResAudio_UI_Attacked</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>29</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" t="s">
         <v>76</v>
       </c>
-      <c r="I33" s="6" t="str">
+      <c r="I34" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Assets/ResAB/Audio/AudioUI/attacked.wav</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="5" t="str">
+      <c r="D35" s="5" t="str">
         <f t="shared" si="3"/>
         <v>ResAudio_UI_Forbidden</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>29</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H35" t="s">
         <v>79</v>
       </c>
-      <c r="I34" s="6" t="str">
+      <c r="I35" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Assets/ResAB/Audio/AudioUI/forbidden.wav</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="5" t="str">
+      <c r="D36" s="5" t="str">
         <f t="shared" si="3"/>
         <v>ResAudio_UI_Battle_forbidden</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>29</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
         <v>82</v>
       </c>
-      <c r="I35" s="6" t="str">
+      <c r="I36" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Assets/ResAB/Audio/AudioUI/battle_forbidden.wav</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I36" s="1"/>
-    </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" t="str">
-        <f>B37&amp;"_"&amp;C37</f>
-        <v>ResAudio_Music_login</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s">
-        <v>84</v>
-      </c>
-      <c r="I37" s="6" t="str">
-        <f>G37&amp;"/"&amp;H37</f>
-        <v>Assets/ResAB/Audio/Music/login.wav</v>
-      </c>
+      <c r="I37" s="1"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D38" t="str">
         <f>B38&amp;"_"&amp;C38</f>
-        <v>ResAudio_Music_main</v>
+        <v>ResAudio_Music_login</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I38" s="6" t="str">
-        <f t="shared" ref="I38:I49" si="5">G38&amp;"/"&amp;H38</f>
-        <v>Assets/ResAB/Audio/Music/main.wav</v>
+        <f>G38&amp;"/"&amp;H38</f>
+        <v>Assets/ResAB/Audio/Music/login.wav</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
@@ -3264,163 +3278,161 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D39" t="str">
         <f>B39&amp;"_"&amp;C39</f>
-        <v>ResAudio_Music_game1</v>
+        <v>ResAudio_Music_main</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
       </c>
       <c r="H39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="6" t="str">
+        <f t="shared" ref="I39:I50" si="5">G39&amp;"/"&amp;H39</f>
+        <v>Assets/ResAB/Audio/Music/main.wav</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="str">
+        <f>B40&amp;"_"&amp;C40</f>
+        <v>ResAudio_Music_game1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
         <v>88</v>
       </c>
-      <c r="I39" s="6" t="str">
+      <c r="I40" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/Audio/Music/game1.wav</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" t="s">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
         <v>89</v>
       </c>
-      <c r="D40" t="str">
-        <f>B40&amp;"_"&amp;C40</f>
+      <c r="D41" t="str">
+        <f>B41&amp;"_"&amp;C41</f>
         <v>ResAudio_Music_game2</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G41" t="s">
         <v>17</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H41" t="s">
         <v>90</v>
       </c>
-      <c r="I40" s="6" t="str">
+      <c r="I41" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/Audio/Music/game2.wav</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" t="s">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
         <v>91</v>
       </c>
-      <c r="D41" t="str">
-        <f>B41&amp;"_"&amp;C41</f>
+      <c r="D42" t="str">
+        <f>B42&amp;"_"&amp;C42</f>
         <v>ResAudio_Music_game3</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>17</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" t="s">
         <v>92</v>
       </c>
-      <c r="I41" s="6" t="str">
+      <c r="I42" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/Audio/Music/game3.wav</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
-        <v>93</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s">
-        <v>94</v>
-      </c>
-      <c r="I42" s="6" t="str">
-        <f t="shared" ref="I42:I45" si="6">G42&amp;"/"&amp;H42</f>
-        <v>Assets/ResAB/Audio/Music/ar.wav</v>
-      </c>
-    </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
       </c>
       <c r="H43" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43" s="6" t="str">
+        <f t="shared" ref="I43:I46" si="6">G43&amp;"/"&amp;H43</f>
+        <v>Assets/ResAB/Audio/Music/ar.wav</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
         <v>96</v>
       </c>
-      <c r="I43" s="6" t="str">
+      <c r="I44" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Assets/ResAB/Audio/Music/finish.wav</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
         <v>97</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G45" t="s">
         <v>17</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H45" t="s">
         <v>98</v>
       </c>
-      <c r="I44" s="6" t="str">
+      <c r="I45" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Assets/ResAB/Audio/Music/win.wav</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
         <v>99</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G46" t="s">
         <v>17</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H46" t="s">
         <v>100</v>
       </c>
-      <c r="I45" s="6" t="str">
+      <c r="I46" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Assets/ResAB/Audio/Music/fail.wav</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" t="s">
-        <v>103</v>
-      </c>
-      <c r="G47" t="s">
-        <v>104</v>
-      </c>
-      <c r="H47" t="s">
-        <v>105</v>
-      </c>
-      <c r="I47" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerDragon.wav</v>
-      </c>
-    </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G48" t="s">
         <v>104</v>
@@ -3438,13 +3450,13 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G49" t="s">
         <v>104</v>
@@ -3462,23 +3474,23 @@
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G50" t="s">
         <v>104</v>
       </c>
       <c r="H50" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I50" s="6" t="str">
-        <f t="shared" ref="I50:I81" si="7">G50&amp;"/"&amp;H50</f>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerIce.wav</v>
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerDragon.wav</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
@@ -3486,13 +3498,13 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F51" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G51" t="s">
         <v>104</v>
@@ -3501,7 +3513,7 @@
         <v>115</v>
       </c>
       <c r="I51" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="I51:I82" si="7">G51&amp;"/"&amp;H51</f>
         <v>Assets/ResAB/Audio/AudioBattle/FireTowerIce.wav</v>
       </c>
     </row>
@@ -3510,13 +3522,13 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F52" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G52" t="s">
         <v>104</v>
@@ -3534,23 +3546,23 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F53" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G53" t="s">
         <v>104</v>
       </c>
-      <c r="H53" s="7" t="s">
-        <v>547</v>
+      <c r="H53" t="s">
+        <v>115</v>
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerArrow.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerIce.wav</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
@@ -3558,19 +3570,19 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F54" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G54" t="s">
         <v>104</v>
       </c>
-      <c r="H54" t="s">
-        <v>546</v>
+      <c r="H54" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="I54" s="6" t="str">
         <f t="shared" si="7"/>
@@ -3582,13 +3594,13 @@
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D55" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F55" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G55" t="s">
         <v>104</v>
@@ -3606,23 +3618,23 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F56" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G56" t="s">
         <v>104</v>
       </c>
       <c r="H56" t="s">
-        <v>134</v>
+        <v>546</v>
       </c>
       <c r="I56" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerCannon.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerArrow.wav</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
@@ -3630,13 +3642,13 @@
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F57" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G57" t="s">
         <v>104</v>
@@ -3654,13 +3666,13 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F58" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G58" t="s">
         <v>104</v>
@@ -3678,23 +3690,23 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F59" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G59" t="s">
         <v>104</v>
       </c>
       <c r="H59" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="I59" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerCannon.wav</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
@@ -3702,13 +3714,13 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F60" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G60" t="s">
         <v>104</v>
@@ -3726,13 +3738,13 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D61" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F61" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G61" t="s">
         <v>104</v>
@@ -3750,13 +3762,13 @@
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F62" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G62" t="s">
         <v>104</v>
@@ -3774,13 +3786,13 @@
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F63" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G63" t="s">
         <v>104</v>
@@ -3798,13 +3810,13 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D64" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F64" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G64" t="s">
         <v>104</v>
@@ -3822,13 +3834,13 @@
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D65" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F65" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G65" t="s">
         <v>104</v>
@@ -3846,13 +3858,13 @@
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F66" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G66" t="s">
         <v>104</v>
@@ -3870,13 +3882,13 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F67" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G67" t="s">
         <v>104</v>
@@ -3894,13 +3906,13 @@
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D68" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F68" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G68" t="s">
         <v>104</v>
@@ -3918,13 +3930,13 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D69" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F69" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G69" t="s">
         <v>104</v>
@@ -3942,13 +3954,13 @@
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D70" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F70" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G70" t="s">
         <v>104</v>
@@ -3966,23 +3978,23 @@
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D71" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F71" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G71" t="s">
         <v>104</v>
       </c>
       <c r="H71" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="I71" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerMystOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
@@ -3990,13 +4002,13 @@
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F72" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G72" t="s">
         <v>104</v>
@@ -4014,13 +4026,13 @@
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D73" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F73" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G73" t="s">
         <v>104</v>
@@ -4038,23 +4050,23 @@
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F74" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G74" t="s">
         <v>104</v>
       </c>
       <c r="H74" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="I74" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerMystOrb.wav</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
@@ -4062,13 +4074,13 @@
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D75" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F75" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G75" t="s">
         <v>104</v>
@@ -4086,13 +4098,13 @@
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D76" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F76" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G76" t="s">
         <v>104</v>
@@ -4110,23 +4122,23 @@
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D77" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F77" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G77" t="s">
         <v>104</v>
       </c>
       <c r="H77" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="I77" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerScorpio.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
@@ -4134,13 +4146,13 @@
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D78" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F78" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G78" t="s">
         <v>104</v>
@@ -4158,13 +4170,13 @@
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D79" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F79" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G79" t="s">
         <v>104</v>
@@ -4182,23 +4194,23 @@
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D80" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F80" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G80" t="s">
         <v>104</v>
       </c>
       <c r="H80" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="I80" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerBreaker.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerScorpio.wav</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
@@ -4206,13 +4218,13 @@
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D81" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F81" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G81" t="s">
         <v>104</v>
@@ -4230,13 +4242,13 @@
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D82" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F82" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G82" t="s">
         <v>104</v>
@@ -4245,7 +4257,7 @@
         <v>210</v>
       </c>
       <c r="I82" s="6" t="str">
-        <f t="shared" ref="I82:I114" si="8">G82&amp;"/"&amp;H82</f>
+        <f t="shared" si="7"/>
         <v>Assets/ResAB/Audio/AudioBattle/FireTowerBreaker.wav</v>
       </c>
     </row>
@@ -4254,23 +4266,23 @@
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D83" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F83" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G83" t="s">
         <v>104</v>
       </c>
       <c r="H83" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="I83" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <f t="shared" ref="I83:I115" si="8">G83&amp;"/"&amp;H83</f>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerBreaker.wav</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
@@ -4278,13 +4290,13 @@
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D84" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F84" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G84" t="s">
         <v>104</v>
@@ -4302,13 +4314,13 @@
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D85" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F85" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G85" t="s">
         <v>104</v>
@@ -4326,23 +4338,23 @@
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D86" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F86" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G86" t="s">
         <v>104</v>
       </c>
       <c r="H86" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="I86" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerIceArrow.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
@@ -4350,13 +4362,13 @@
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D87" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F87" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G87" t="s">
         <v>104</v>
@@ -4374,13 +4386,13 @@
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D88" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F88" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G88" t="s">
         <v>104</v>
@@ -4398,23 +4410,23 @@
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D89" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F89" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G89" t="s">
         <v>104</v>
       </c>
       <c r="H89" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I89" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerDizzyOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerIceArrow.wav</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
@@ -4422,13 +4434,13 @@
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D90" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F90" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G90" t="s">
         <v>104</v>
@@ -4446,13 +4458,13 @@
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D91" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F91" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G91" t="s">
         <v>104</v>
@@ -4470,23 +4482,23 @@
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D92" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F92" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G92" t="s">
         <v>104</v>
       </c>
       <c r="H92" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="I92" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerTesla.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerDizzyOrb.wav</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
@@ -4494,13 +4506,13 @@
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D93" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F93" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G93" t="s">
         <v>104</v>
@@ -4518,13 +4530,13 @@
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D94" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F94" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G94" t="s">
         <v>104</v>
@@ -4542,23 +4554,23 @@
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>574</v>
+        <v>253</v>
       </c>
       <c r="D95" t="s">
-        <v>575</v>
+        <v>254</v>
       </c>
       <c r="F95" t="s">
-        <v>568</v>
+        <v>255</v>
       </c>
       <c r="G95" t="s">
         <v>104</v>
       </c>
-      <c r="H95" s="8" t="s">
-        <v>585</v>
+      <c r="H95" t="s">
+        <v>249</v>
       </c>
       <c r="I95" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerFire1.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerTesla.wav</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.2">
@@ -4566,13 +4578,13 @@
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D96" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F96" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G96" t="s">
         <v>104</v>
@@ -4590,13 +4602,13 @@
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D97" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F97" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G97" t="s">
         <v>104</v>
@@ -4614,23 +4626,23 @@
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>256</v>
+        <v>578</v>
       </c>
       <c r="D98" t="s">
-        <v>257</v>
+        <v>579</v>
       </c>
       <c r="F98" t="s">
-        <v>258</v>
+        <v>570</v>
       </c>
       <c r="G98" t="s">
         <v>104</v>
       </c>
-      <c r="H98" t="s">
-        <v>259</v>
+      <c r="H98" s="8" t="s">
+        <v>585</v>
       </c>
       <c r="I98" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerHellFire.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerFire1.wav</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
@@ -4638,13 +4650,13 @@
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D99" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F99" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G99" t="s">
         <v>104</v>
@@ -4662,13 +4674,13 @@
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D100" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F100" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G100" t="s">
         <v>104</v>
@@ -4686,23 +4698,23 @@
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D101" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F101" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G101" t="s">
         <v>104</v>
       </c>
       <c r="H101" t="s">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="I101" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerHellFire.wav</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
@@ -4710,13 +4722,13 @@
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D102" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F102" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G102" t="s">
         <v>104</v>
@@ -4734,13 +4746,13 @@
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D103" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F103" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G103" t="s">
         <v>104</v>
@@ -4758,13 +4770,13 @@
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D104" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F104" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G104" t="s">
         <v>104</v>
@@ -4782,13 +4794,13 @@
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D105" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F105" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G105" t="s">
         <v>104</v>
@@ -4806,13 +4818,13 @@
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D106" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F106" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G106" t="s">
         <v>104</v>
@@ -4830,13 +4842,13 @@
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D107" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F107" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G107" t="s">
         <v>104</v>
@@ -4854,13 +4866,13 @@
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D108" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F108" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G108" t="s">
         <v>104</v>
@@ -4878,13 +4890,13 @@
         <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D109" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F109" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G109" t="s">
         <v>104</v>
@@ -4902,23 +4914,23 @@
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D110" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F110" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G110" t="s">
         <v>104</v>
       </c>
       <c r="H110" t="s">
-        <v>296</v>
+        <v>144</v>
       </c>
       <c r="I110" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerSting.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.2">
@@ -4926,13 +4938,13 @@
         <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D111" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F111" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G111" t="s">
         <v>104</v>
@@ -4950,13 +4962,13 @@
         <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D112" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F112" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G112" t="s">
         <v>104</v>
@@ -4974,23 +4986,23 @@
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D113" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F113" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G113" t="s">
         <v>104</v>
       </c>
       <c r="H113" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="I113" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerRocket.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerSting.wav</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.2">
@@ -4998,13 +5010,13 @@
         <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D114" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F114" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G114" t="s">
         <v>104</v>
@@ -5022,13 +5034,13 @@
         <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D115" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F115" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G115" t="s">
         <v>104</v>
@@ -5037,7 +5049,7 @@
         <v>306</v>
       </c>
       <c r="I115" s="6" t="str">
-        <f t="shared" ref="I115:I185" si="9">G115&amp;"/"&amp;H115</f>
+        <f t="shared" si="8"/>
         <v>Assets/ResAB/Audio/AudioBattle/FireTowerRocket.wav</v>
       </c>
     </row>
@@ -5046,23 +5058,23 @@
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D116" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F116" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G116" t="s">
         <v>104</v>
       </c>
       <c r="H116" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="I116" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerFireOrb.wav</v>
+        <f t="shared" ref="I116:I186" si="9">G116&amp;"/"&amp;H116</f>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerRocket.wav</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.2">
@@ -5070,13 +5082,13 @@
         <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D117" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F117" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G117" t="s">
         <v>104</v>
@@ -5094,13 +5106,13 @@
         <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D118" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F118" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G118" t="s">
         <v>104</v>
@@ -5114,29 +5126,35 @@
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D119" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>554</v>
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" t="s">
+        <v>320</v>
+      </c>
+      <c r="D119" t="s">
+        <v>321</v>
+      </c>
+      <c r="F119" t="s">
+        <v>322</v>
       </c>
       <c r="G119" t="s">
         <v>104</v>
       </c>
-      <c r="H119" s="8" t="s">
-        <v>557</v>
+      <c r="H119" t="s">
+        <v>316</v>
       </c>
       <c r="I119" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerBomb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerFireOrb.wav</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D120" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G120" t="s">
         <v>104</v>
@@ -5151,10 +5169,10 @@
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D121" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G121" t="s">
         <v>104</v>
@@ -5169,28 +5187,28 @@
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D122" s="9" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="G122" t="s">
         <v>104</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>589</v>
+        <v>557</v>
       </c>
       <c r="I122" s="6" t="str">
-        <f t="shared" ref="I122:I124" si="10">G122&amp;"/"&amp;H122</f>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerGolem.wav</v>
+        <f t="shared" si="9"/>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerBomb.wav</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D123" s="9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G123" t="s">
         <v>104</v>
@@ -5199,16 +5217,16 @@
         <v>589</v>
       </c>
       <c r="I123" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I123:I125" si="10">G123&amp;"/"&amp;H123</f>
         <v>Assets/ResAB/Audio/AudioBattle/FireTowerGolem.wav</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D124" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G124" t="s">
         <v>104</v>
@@ -5221,28 +5239,22 @@
         <v>Assets/ResAB/Audio/AudioBattle/FireTowerGolem.wav</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" t="s">
-        <v>323</v>
-      </c>
-      <c r="D126" t="s">
-        <v>324</v>
-      </c>
-      <c r="F126" t="s">
-        <v>325</v>
-      </c>
-      <c r="G126" t="s">
-        <v>104</v>
-      </c>
-      <c r="H126" t="s">
-        <v>326</v>
-      </c>
-      <c r="I126" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerArrow.wav</v>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D125" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="G125" t="s">
+        <v>104</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="I125" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerGolem.wav</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.2">
@@ -5250,13 +5262,13 @@
         <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D127" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F127" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G127" t="s">
         <v>104</v>
@@ -5274,13 +5286,13 @@
         <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D128" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F128" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G128" t="s">
         <v>104</v>
@@ -5298,23 +5310,23 @@
         <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D129" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F129" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G129" t="s">
         <v>104</v>
       </c>
       <c r="H129" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="I129" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerCannon.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerArrow.wav</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.2">
@@ -5322,13 +5334,13 @@
         <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D130" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F130" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G130" t="s">
         <v>104</v>
@@ -5346,13 +5358,13 @@
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D131" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F131" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G131" t="s">
         <v>104</v>
@@ -5370,23 +5382,23 @@
         <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D132" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F132" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G132" t="s">
         <v>104</v>
       </c>
       <c r="H132" t="s">
-        <v>144</v>
+        <v>336</v>
       </c>
       <c r="I132" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerCannon.wav</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.2">
@@ -5394,13 +5406,13 @@
         <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D133" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F133" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G133" t="s">
         <v>104</v>
@@ -5418,13 +5430,13 @@
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D134" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F134" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G134" t="s">
         <v>104</v>
@@ -5442,13 +5454,13 @@
         <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D135" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F135" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G135" t="s">
         <v>104</v>
@@ -5466,13 +5478,13 @@
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D136" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F136" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G136" t="s">
         <v>104</v>
@@ -5490,13 +5502,13 @@
         <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D137" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F137" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G137" t="s">
         <v>104</v>
@@ -5514,23 +5526,23 @@
         <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D138" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F138" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G138" t="s">
         <v>104</v>
       </c>
       <c r="H138" t="s">
-        <v>364</v>
+        <v>144</v>
       </c>
       <c r="I138" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDragon.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.2">
@@ -5538,13 +5550,13 @@
         <v>15</v>
       </c>
       <c r="C139" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D139" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F139" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G139" t="s">
         <v>104</v>
@@ -5562,13 +5574,13 @@
         <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D140" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F140" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G140" t="s">
         <v>104</v>
@@ -5586,23 +5598,23 @@
         <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D141" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F141" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G141" t="s">
         <v>104</v>
       </c>
       <c r="H141" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="I141" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThunder.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDragon.wav</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.2">
@@ -5610,13 +5622,13 @@
         <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D142" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F142" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G142" t="s">
         <v>104</v>
@@ -5634,13 +5646,13 @@
         <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D143" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F143" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G143" t="s">
         <v>104</v>
@@ -5658,23 +5670,23 @@
         <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D144" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F144" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G144" t="s">
         <v>104</v>
       </c>
       <c r="H144" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="I144" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIce.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThunder.wav</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.2">
@@ -5682,13 +5694,13 @@
         <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D145" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F145" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G145" t="s">
         <v>104</v>
@@ -5706,13 +5718,13 @@
         <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D146" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F146" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G146" t="s">
         <v>104</v>
@@ -5730,23 +5742,23 @@
         <v>15</v>
       </c>
       <c r="C147" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D147" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F147" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G147" t="s">
         <v>104</v>
       </c>
       <c r="H147" t="s">
-        <v>144</v>
+        <v>384</v>
       </c>
       <c r="I147" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIce.wav</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.2">
@@ -5754,13 +5766,13 @@
         <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D148" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F148" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G148" t="s">
         <v>104</v>
@@ -5778,13 +5790,13 @@
         <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D149" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F149" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G149" t="s">
         <v>104</v>
@@ -5802,23 +5814,23 @@
         <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D150" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F150" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G150" t="s">
         <v>104</v>
       </c>
       <c r="H150" t="s">
-        <v>403</v>
+        <v>144</v>
       </c>
       <c r="I150" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerMystOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.2">
@@ -5826,13 +5838,13 @@
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D151" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F151" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G151" t="s">
         <v>104</v>
@@ -5850,13 +5862,13 @@
         <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D152" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F152" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G152" t="s">
         <v>104</v>
@@ -5874,23 +5886,23 @@
         <v>15</v>
       </c>
       <c r="C153" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D153" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F153" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G153" t="s">
         <v>104</v>
       </c>
       <c r="H153" t="s">
-        <v>144</v>
+        <v>403</v>
       </c>
       <c r="I153" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerMystOrb.wav</v>
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.2">
@@ -5898,13 +5910,13 @@
         <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D154" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F154" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G154" t="s">
         <v>104</v>
@@ -5922,13 +5934,13 @@
         <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D155" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F155" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G155" t="s">
         <v>104</v>
@@ -5946,23 +5958,23 @@
         <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D156" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F156" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G156" t="s">
         <v>104</v>
       </c>
       <c r="H156" t="s">
-        <v>422</v>
+        <v>144</v>
       </c>
       <c r="I156" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerScorpio.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.2">
@@ -5970,13 +5982,13 @@
         <v>15</v>
       </c>
       <c r="C157" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D157" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F157" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G157" t="s">
         <v>104</v>
@@ -5994,13 +6006,13 @@
         <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D158" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F158" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G158" t="s">
         <v>104</v>
@@ -6018,23 +6030,23 @@
         <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D159" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F159" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G159" t="s">
         <v>104</v>
       </c>
       <c r="H159" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="I159" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBreaker.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerScorpio.wav</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.2">
@@ -6042,13 +6054,13 @@
         <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D160" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F160" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G160" t="s">
         <v>104</v>
@@ -6066,13 +6078,13 @@
         <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D161" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F161" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G161" t="s">
         <v>104</v>
@@ -6090,23 +6102,23 @@
         <v>15</v>
       </c>
       <c r="C162" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D162" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F162" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G162" t="s">
         <v>104</v>
       </c>
       <c r="H162" t="s">
-        <v>144</v>
+        <v>432</v>
       </c>
       <c r="I162" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBreaker.wav</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.2">
@@ -6114,13 +6126,13 @@
         <v>15</v>
       </c>
       <c r="C163" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D163" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F163" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G163" t="s">
         <v>104</v>
@@ -6138,13 +6150,13 @@
         <v>15</v>
       </c>
       <c r="C164" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D164" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F164" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G164" t="s">
         <v>104</v>
@@ -6162,23 +6174,23 @@
         <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D165" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F165" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G165" t="s">
         <v>104</v>
       </c>
       <c r="H165" t="s">
-        <v>451</v>
+        <v>144</v>
       </c>
       <c r="I165" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIceArrow.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.2">
@@ -6186,13 +6198,13 @@
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D166" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F166" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G166" t="s">
         <v>104</v>
@@ -6210,13 +6222,13 @@
         <v>15</v>
       </c>
       <c r="C167" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D167" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F167" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G167" t="s">
         <v>104</v>
@@ -6234,23 +6246,23 @@
         <v>15</v>
       </c>
       <c r="C168" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D168" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F168" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G168" t="s">
         <v>104</v>
       </c>
       <c r="H168" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="I168" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDizzyOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIceArrow.wav</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.2">
@@ -6258,13 +6270,13 @@
         <v>15</v>
       </c>
       <c r="C169" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D169" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F169" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G169" t="s">
         <v>104</v>
@@ -6282,13 +6294,13 @@
         <v>15</v>
       </c>
       <c r="C170" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D170" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F170" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G170" t="s">
         <v>104</v>
@@ -6306,23 +6318,23 @@
         <v>15</v>
       </c>
       <c r="C171" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D171" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F171" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G171" t="s">
         <v>104</v>
       </c>
       <c r="H171" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="I171" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerTesla.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDizzyOrb.wav</v>
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.2">
@@ -6330,13 +6342,13 @@
         <v>15</v>
       </c>
       <c r="C172" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D172" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F172" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G172" t="s">
         <v>104</v>
@@ -6354,13 +6366,13 @@
         <v>15</v>
       </c>
       <c r="C173" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D173" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F173" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G173" t="s">
         <v>104</v>
@@ -6378,23 +6390,23 @@
         <v>15</v>
       </c>
       <c r="C174" t="s">
-        <v>580</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>586</v>
+        <v>475</v>
+      </c>
+      <c r="D174" t="s">
+        <v>476</v>
       </c>
       <c r="F174" t="s">
-        <v>571</v>
+        <v>477</v>
       </c>
       <c r="G174" t="s">
         <v>104</v>
       </c>
-      <c r="H174" s="8" t="s">
-        <v>587</v>
+      <c r="H174" t="s">
+        <v>471</v>
       </c>
       <c r="I174" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerFire1.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerTesla.wav</v>
       </c>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.2">
@@ -6402,13 +6414,13 @@
         <v>15</v>
       </c>
       <c r="C175" t="s">
-        <v>581</v>
-      </c>
-      <c r="D175" t="s">
-        <v>582</v>
+        <v>580</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>586</v>
       </c>
       <c r="F175" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G175" t="s">
         <v>104</v>
@@ -6426,13 +6438,13 @@
         <v>15</v>
       </c>
       <c r="C176" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D176" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F176" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G176" t="s">
         <v>104</v>
@@ -6450,23 +6462,23 @@
         <v>15</v>
       </c>
       <c r="C177" t="s">
-        <v>478</v>
+        <v>583</v>
       </c>
       <c r="D177" t="s">
-        <v>479</v>
+        <v>584</v>
       </c>
       <c r="F177" t="s">
-        <v>480</v>
+        <v>573</v>
       </c>
       <c r="G177" t="s">
         <v>104</v>
       </c>
-      <c r="H177" t="s">
-        <v>481</v>
+      <c r="H177" s="8" t="s">
+        <v>587</v>
       </c>
       <c r="I177" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerHellFire.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerFire1.wav</v>
       </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.2">
@@ -6474,13 +6486,13 @@
         <v>15</v>
       </c>
       <c r="C178" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D178" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F178" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G178" t="s">
         <v>104</v>
@@ -6498,13 +6510,13 @@
         <v>15</v>
       </c>
       <c r="C179" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D179" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F179" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G179" t="s">
         <v>104</v>
@@ -6522,23 +6534,23 @@
         <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D180" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F180" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G180" t="s">
         <v>104</v>
       </c>
       <c r="H180" t="s">
-        <v>144</v>
+        <v>481</v>
       </c>
       <c r="I180" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerHellFire.wav</v>
       </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.2">
@@ -6546,13 +6558,13 @@
         <v>15</v>
       </c>
       <c r="C181" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D181" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F181" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G181" t="s">
         <v>104</v>
@@ -6570,13 +6582,13 @@
         <v>15</v>
       </c>
       <c r="C182" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D182" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F182" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G182" t="s">
         <v>104</v>
@@ -6594,13 +6606,13 @@
         <v>15</v>
       </c>
       <c r="C183" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D183" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F183" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G183" t="s">
         <v>104</v>
@@ -6618,13 +6630,13 @@
         <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D184" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F184" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G184" t="s">
         <v>104</v>
@@ -6642,13 +6654,13 @@
         <v>15</v>
       </c>
       <c r="C185" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D185" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F185" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G185" t="s">
         <v>104</v>
@@ -6666,23 +6678,23 @@
         <v>15</v>
       </c>
       <c r="C186" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D186" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F186" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G186" t="s">
         <v>104</v>
       </c>
       <c r="H186" t="s">
-        <v>509</v>
+        <v>144</v>
       </c>
       <c r="I186" s="6" t="str">
-        <f t="shared" ref="I186:I197" si="11">G186&amp;"/"&amp;H186</f>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThief.wav</v>
+        <f t="shared" si="9"/>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.2">
@@ -6690,13 +6702,13 @@
         <v>15</v>
       </c>
       <c r="C187" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D187" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F187" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G187" t="s">
         <v>104</v>
@@ -6705,7 +6717,7 @@
         <v>509</v>
       </c>
       <c r="I187" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I187:I198" si="11">G187&amp;"/"&amp;H187</f>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerThief.wav</v>
       </c>
     </row>
@@ -6714,13 +6726,13 @@
         <v>15</v>
       </c>
       <c r="C188" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D188" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F188" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G188" t="s">
         <v>104</v>
@@ -6738,23 +6750,23 @@
         <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D189" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F189" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G189" t="s">
         <v>104</v>
       </c>
       <c r="H189" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="I189" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerSting.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThief.wav</v>
       </c>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.2">
@@ -6762,13 +6774,13 @@
         <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D190" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F190" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G190" t="s">
         <v>104</v>
@@ -6786,13 +6798,13 @@
         <v>15</v>
       </c>
       <c r="C191" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D191" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F191" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G191" t="s">
         <v>104</v>
@@ -6810,23 +6822,23 @@
         <v>15</v>
       </c>
       <c r="C192" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D192" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F192" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G192" t="s">
         <v>104</v>
       </c>
       <c r="H192" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="I192" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerRocket.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerSting.wav</v>
       </c>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.2">
@@ -6834,13 +6846,13 @@
         <v>15</v>
       </c>
       <c r="C193" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D193" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F193" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G193" t="s">
         <v>104</v>
@@ -6858,13 +6870,13 @@
         <v>15</v>
       </c>
       <c r="C194" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D194" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F194" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G194" t="s">
         <v>104</v>
@@ -6882,23 +6894,23 @@
         <v>15</v>
       </c>
       <c r="C195" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D195" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F195" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G195" t="s">
         <v>104</v>
       </c>
       <c r="H195" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="I195" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerFireOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerRocket.wav</v>
       </c>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.2">
@@ -6906,13 +6918,13 @@
         <v>15</v>
       </c>
       <c r="C196" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D196" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F196" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G196" t="s">
         <v>104</v>
@@ -6930,13 +6942,13 @@
         <v>15</v>
       </c>
       <c r="C197" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D197" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F197" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G197" t="s">
         <v>104</v>
@@ -6950,29 +6962,35 @@
       </c>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D198" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="F198" s="8" t="s">
-        <v>558</v>
+      <c r="B198" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198" t="s">
+        <v>543</v>
+      </c>
+      <c r="D198" t="s">
+        <v>544</v>
+      </c>
+      <c r="F198" t="s">
+        <v>545</v>
       </c>
       <c r="G198" t="s">
         <v>104</v>
       </c>
-      <c r="H198" s="8" t="s">
-        <v>561</v>
+      <c r="H198" t="s">
+        <v>539</v>
       </c>
       <c r="I198" s="6" t="str">
-        <f t="shared" ref="I198:I200" si="12">G198&amp;"/"&amp;H198</f>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBomb.wav</v>
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerFireOrb.wav</v>
       </c>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D199" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G199" t="s">
         <v>104</v>
@@ -6981,24 +6999,42 @@
         <v>561</v>
       </c>
       <c r="I199" s="6" t="str">
+        <f t="shared" ref="I199:I201" si="12">G199&amp;"/"&amp;H199</f>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBomb.wav</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D200" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="G200" t="s">
+        <v>104</v>
+      </c>
+      <c r="H200" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="I200" s="6" t="str">
         <f t="shared" si="12"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerBomb.wav</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D200" s="9" t="s">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D201" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="F200" s="8" t="s">
+      <c r="F201" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="G200" t="s">
-        <v>104</v>
-      </c>
-      <c r="H200" s="8" t="s">
+      <c r="G201" t="s">
+        <v>104</v>
+      </c>
+      <c r="H201" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="I200" s="6" t="str">
+      <c r="I201" s="6" t="str">
         <f t="shared" si="12"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerBomb.wav</v>
       </c>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResAudioCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResAudioCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96042624-6C05-4E33-9EF5-C442E01CC47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6713B5A8-4038-4B12-8722-A4467EE29B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2375,10 +2375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA201"/>
+  <dimension ref="A1:AA202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2760,51 +2760,34 @@
         <v>597</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="str">
-        <f>B15&amp;"_"&amp;C15</f>
-        <v>ResAudio_UI_ready_go</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="6" t="str">
-        <f>G15&amp;"/"&amp;H15</f>
-        <v>Assets/ResAB/Audio/AudioUI/begin.wav</v>
-      </c>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D16" t="str">
         <f>B16&amp;"_"&amp;C16</f>
-        <v>ResAudio_UI_victory</v>
+        <v>ResAudio_UI_ready_go</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I16" s="6" t="str">
-        <f t="shared" ref="I16:I22" si="2">G16&amp;"/"&amp;H16</f>
-        <v>Assets/ResAB/Audio/AudioUI/victory.wav</v>
+        <f>G16&amp;"/"&amp;H16</f>
+        <v>Assets/ResAB/Audio/AudioUI/begin.wav</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -2812,165 +2795,162 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" t="str">
         <f>B17&amp;"_"&amp;C17</f>
-        <v>ResAudio_UI_failed</v>
+        <v>ResAudio_UI_victory</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
       <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="6" t="str">
+        <f t="shared" ref="I17:I23" si="2">G17&amp;"/"&amp;H17</f>
+        <v>Assets/ResAB/Audio/AudioUI/victory.wav</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="str">
+        <f>B18&amp;"_"&amp;C18</f>
+        <v>ResAudio_UI_failed</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="6" t="str">
+      <c r="I18" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Assets/ResAB/Audio/AudioUI/failed.mp3</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="5" t="str">
-        <f>B19&amp;"_"&amp;C19</f>
-        <v>ResAudio_UI_Click</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="6" t="str">
-        <f>G19&amp;"/"&amp;H19</f>
-        <v>Assets/ResAB/Audio/AudioUI/click.wav</v>
-      </c>
-    </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" s="5" t="str">
         <f>B20&amp;"_"&amp;C20</f>
-        <v>ResAudio_UI_Back</v>
+        <v>ResAudio_UI_Click</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
       </c>
       <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="6" t="str">
+        <f>G20&amp;"/"&amp;H20</f>
+        <v>Assets/ResAB/Audio/AudioUI/click.wav</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f>B21&amp;"_"&amp;C21</f>
+        <v>ResAudio_UI_Back</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="6" t="str">
+      <c r="I21" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Assets/ResAB/Audio/AudioUI/back.wav</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="5" t="str">
-        <f>B21&amp;"_"&amp;C21</f>
+      <c r="D22" s="5" t="str">
+        <f>B22&amp;"_"&amp;C22</f>
         <v>ResAudio_UI_Confirm</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>29</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="6" t="str">
+      <c r="I22" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Assets/ResAB/Audio/AudioUI/click.wav</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="5" t="str">
-        <f>B22&amp;"_"&amp;C22</f>
+      <c r="D23" s="5" t="str">
+        <f>B23&amp;"_"&amp;C23</f>
         <v>ResAudio_TowerPush</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>42</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>29</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H23" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="6" t="str">
+      <c r="I23" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Assets/ResAB/Audio/AudioUI/place.wav</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="5" t="str">
-        <f>B24&amp;"_"&amp;C24</f>
-        <v>ResAudio_UI_Pop-up</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="6" t="str">
-        <f>G24&amp;"/"&amp;H24</f>
-        <v>Assets/ResAB/Audio/AudioUI/Pop-up.wav</v>
-      </c>
-    </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25" s="5" t="str">
         <f>B25&amp;"_"&amp;C25</f>
-        <v>ResAudio_UI_Join</v>
+        <v>ResAudio_UI_Pop-up</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I25" s="6" t="str">
         <f>G25&amp;"/"&amp;H25</f>
-        <v>Assets/ResAB/Audio/AudioUI/join.wav</v>
+        <v>Assets/ResAB/Audio/AudioUI/Pop-up.wav</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
@@ -2978,24 +2958,24 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D26" s="5" t="str">
         <f>B26&amp;"_"&amp;C26</f>
-        <v>ResAudio_UI_Quit</v>
+        <v>ResAudio_UI_Join</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I26" s="6" t="str">
         <f>G26&amp;"/"&amp;H26</f>
-        <v>Assets/ResAB/Audio/AudioUI/quit.wav</v>
+        <v>Assets/ResAB/Audio/AudioUI/join.wav</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
@@ -3003,24 +2983,24 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D27" s="5" t="str">
         <f>B27&amp;"_"&amp;C27</f>
-        <v>ResAudio_UI_Reward</v>
+        <v>ResAudio_UI_Quit</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
         <v>29</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I27" s="6" t="str">
         <f>G27&amp;"/"&amp;H27</f>
-        <v>Assets/ResAB/Audio/AudioUI/reward.wav</v>
+        <v>Assets/ResAB/Audio/AudioUI/quit.wav</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
@@ -3028,24 +3008,24 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D28" s="5" t="str">
         <f>B28&amp;"_"&amp;C28</f>
-        <v>ResAudio_UI_Scan</v>
+        <v>ResAudio_UI_Reward</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G28" t="s">
         <v>29</v>
       </c>
       <c r="H28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I28" s="6" t="str">
         <f>G28&amp;"/"&amp;H28</f>
-        <v>Assets/ResAB/Audio/AudioUI/scan.wav</v>
+        <v>Assets/ResAB/Audio/AudioUI/reward.wav</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
@@ -3053,24 +3033,24 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D29" s="5" t="str">
-        <f t="shared" ref="D29:D36" si="3">B29&amp;"_"&amp;C29</f>
-        <v>ResAudio_UI_Upgradation</v>
+        <f>B29&amp;"_"&amp;C29</f>
+        <v>ResAudio_UI_Scan</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G29" t="s">
         <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I29" s="6" t="str">
-        <f t="shared" ref="I29:I36" si="4">G29&amp;"/"&amp;H29</f>
-        <v>Assets/ResAB/Audio/AudioUI/upgradation.wav</v>
+        <f>G29&amp;"/"&amp;H29</f>
+        <v>Assets/ResAB/Audio/AudioUI/scan.wav</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
@@ -3078,221 +3058,224 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="5" t="str">
+        <f t="shared" ref="D30:D37" si="3">B30&amp;"_"&amp;C30</f>
+        <v>ResAudio_UI_Upgradation</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="6" t="str">
+        <f t="shared" ref="I30:I37" si="4">G30&amp;"/"&amp;H30</f>
+        <v>Assets/ResAB/Audio/AudioUI/upgradation.wav</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="5" t="str">
+      <c r="D31" s="5" t="str">
         <f t="shared" si="3"/>
         <v>ResAudio_UI_Recovery</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>29</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H31" t="s">
         <v>64</v>
       </c>
-      <c r="I30" s="6" t="str">
+      <c r="I31" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Assets/ResAB/Audio/AudioUI/recovery.wav</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="5" t="str">
+      <c r="D32" s="5" t="str">
         <f t="shared" si="3"/>
         <v>ResAudio_UI_Buy</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G32" t="s">
         <v>29</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="6" t="str">
+      <c r="I32" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Assets/ResAB/Audio/AudioUI/buy.wav</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="5" t="str">
+      <c r="D33" s="5" t="str">
         <f t="shared" si="3"/>
         <v>ResAudio_UI_Sell</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>29</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H33" t="s">
         <v>70</v>
       </c>
-      <c r="I32" s="6" t="str">
+      <c r="I33" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Assets/ResAB/Audio/AudioUI/sell.wav</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="5" t="str">
+      <c r="D34" s="5" t="str">
         <f t="shared" si="3"/>
         <v>ResAudio_UI_Victory</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>29</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="6" t="str">
+      <c r="I34" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Assets/ResAB/Audio/AudioUI/victory_1.wav</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="5" t="str">
+      <c r="D35" s="5" t="str">
         <f t="shared" si="3"/>
         <v>ResAudio_UI_Attacked</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>29</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H35" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="6" t="str">
+      <c r="I35" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Assets/ResAB/Audio/AudioUI/attacked.wav</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="5" t="str">
+      <c r="D36" s="5" t="str">
         <f t="shared" si="3"/>
         <v>ResAudio_UI_Forbidden</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>29</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
         <v>79</v>
       </c>
-      <c r="I35" s="6" t="str">
+      <c r="I36" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Assets/ResAB/Audio/AudioUI/forbidden.wav</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="5" t="str">
+      <c r="D37" s="5" t="str">
         <f t="shared" si="3"/>
         <v>ResAudio_UI_Battle_forbidden</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>29</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H37" t="s">
         <v>82</v>
       </c>
-      <c r="I36" s="6" t="str">
+      <c r="I37" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Assets/ResAB/Audio/AudioUI/battle_forbidden.wav</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I37" s="1"/>
-    </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" t="str">
-        <f>B38&amp;"_"&amp;C38</f>
-        <v>ResAudio_Music_login</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s">
-        <v>84</v>
-      </c>
-      <c r="I38" s="6" t="str">
-        <f>G38&amp;"/"&amp;H38</f>
-        <v>Assets/ResAB/Audio/Music/login.wav</v>
-      </c>
+      <c r="I38" s="1"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D39" t="str">
         <f>B39&amp;"_"&amp;C39</f>
-        <v>ResAudio_Music_main</v>
+        <v>ResAudio_Music_login</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I39" s="6" t="str">
-        <f t="shared" ref="I39:I50" si="5">G39&amp;"/"&amp;H39</f>
-        <v>Assets/ResAB/Audio/Music/main.wav</v>
+        <f>G39&amp;"/"&amp;H39</f>
+        <v>Assets/ResAB/Audio/Music/login.wav</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
@@ -3300,163 +3283,161 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D40" t="str">
         <f>B40&amp;"_"&amp;C40</f>
-        <v>ResAudio_Music_game1</v>
+        <v>ResAudio_Music_main</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
       </c>
       <c r="H40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="6" t="str">
+        <f t="shared" ref="I40:I51" si="5">G40&amp;"/"&amp;H40</f>
+        <v>Assets/ResAB/Audio/Music/main.wav</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" t="str">
+        <f>B41&amp;"_"&amp;C41</f>
+        <v>ResAudio_Music_game1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
         <v>88</v>
       </c>
-      <c r="I40" s="6" t="str">
+      <c r="I41" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/Audio/Music/game1.wav</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" t="s">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
         <v>89</v>
       </c>
-      <c r="D41" t="str">
-        <f>B41&amp;"_"&amp;C41</f>
+      <c r="D42" t="str">
+        <f>B42&amp;"_"&amp;C42</f>
         <v>ResAudio_Music_game2</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>17</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" t="s">
         <v>90</v>
       </c>
-      <c r="I41" s="6" t="str">
+      <c r="I42" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/Audio/Music/game2.wav</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" t="s">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
         <v>91</v>
       </c>
-      <c r="D42" t="str">
-        <f>B42&amp;"_"&amp;C42</f>
+      <c r="D43" t="str">
+        <f>B43&amp;"_"&amp;C43</f>
         <v>ResAudio_Music_game3</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" t="s">
         <v>17</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H43" t="s">
         <v>92</v>
       </c>
-      <c r="I42" s="6" t="str">
+      <c r="I43" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/Audio/Music/game3.wav</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D43" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s">
-        <v>94</v>
-      </c>
-      <c r="I43" s="6" t="str">
-        <f t="shared" ref="I43:I46" si="6">G43&amp;"/"&amp;H43</f>
-        <v>Assets/ResAB/Audio/Music/ar.wav</v>
-      </c>
-    </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
       </c>
       <c r="H44" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="6" t="str">
+        <f t="shared" ref="I44:I47" si="6">G44&amp;"/"&amp;H44</f>
+        <v>Assets/ResAB/Audio/Music/ar.wav</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
         <v>96</v>
       </c>
-      <c r="I44" s="6" t="str">
+      <c r="I45" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Assets/ResAB/Audio/Music/finish.wav</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
         <v>97</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G46" t="s">
         <v>17</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H46" t="s">
         <v>98</v>
       </c>
-      <c r="I45" s="6" t="str">
+      <c r="I46" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Assets/ResAB/Audio/Music/win.wav</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
         <v>99</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>17</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H47" t="s">
         <v>100</v>
       </c>
-      <c r="I46" s="6" t="str">
+      <c r="I47" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Assets/ResAB/Audio/Music/fail.wav</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" t="s">
-        <v>103</v>
-      </c>
-      <c r="G48" t="s">
-        <v>104</v>
-      </c>
-      <c r="H48" t="s">
-        <v>105</v>
-      </c>
-      <c r="I48" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerDragon.wav</v>
-      </c>
-    </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G49" t="s">
         <v>104</v>
@@ -3474,13 +3455,13 @@
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G50" t="s">
         <v>104</v>
@@ -3498,23 +3479,23 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G51" t="s">
         <v>104</v>
       </c>
       <c r="H51" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I51" s="6" t="str">
-        <f t="shared" ref="I51:I82" si="7">G51&amp;"/"&amp;H51</f>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerIce.wav</v>
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerDragon.wav</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
@@ -3522,13 +3503,13 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F52" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G52" t="s">
         <v>104</v>
@@ -3537,7 +3518,7 @@
         <v>115</v>
       </c>
       <c r="I52" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="I52:I83" si="7">G52&amp;"/"&amp;H52</f>
         <v>Assets/ResAB/Audio/AudioBattle/FireTowerIce.wav</v>
       </c>
     </row>
@@ -3546,13 +3527,13 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D53" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F53" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G53" t="s">
         <v>104</v>
@@ -3570,23 +3551,23 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F54" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G54" t="s">
         <v>104</v>
       </c>
-      <c r="H54" s="7" t="s">
-        <v>547</v>
+      <c r="H54" t="s">
+        <v>115</v>
       </c>
       <c r="I54" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerArrow.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerIce.wav</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
@@ -3594,19 +3575,19 @@
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F55" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G55" t="s">
         <v>104</v>
       </c>
-      <c r="H55" t="s">
-        <v>546</v>
+      <c r="H55" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="I55" s="6" t="str">
         <f t="shared" si="7"/>
@@ -3618,13 +3599,13 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D56" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F56" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G56" t="s">
         <v>104</v>
@@ -3642,23 +3623,23 @@
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F57" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G57" t="s">
         <v>104</v>
       </c>
       <c r="H57" t="s">
-        <v>134</v>
+        <v>546</v>
       </c>
       <c r="I57" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerCannon.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerArrow.wav</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
@@ -3666,13 +3647,13 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D58" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F58" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G58" t="s">
         <v>104</v>
@@ -3690,13 +3671,13 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D59" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F59" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G59" t="s">
         <v>104</v>
@@ -3714,23 +3695,23 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G60" t="s">
         <v>104</v>
       </c>
       <c r="H60" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="I60" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerCannon.wav</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
@@ -3738,13 +3719,13 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F61" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G61" t="s">
         <v>104</v>
@@ -3762,13 +3743,13 @@
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F62" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G62" t="s">
         <v>104</v>
@@ -3786,13 +3767,13 @@
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F63" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G63" t="s">
         <v>104</v>
@@ -3810,13 +3791,13 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D64" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F64" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G64" t="s">
         <v>104</v>
@@ -3834,13 +3815,13 @@
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D65" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F65" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G65" t="s">
         <v>104</v>
@@ -3858,13 +3839,13 @@
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F66" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G66" t="s">
         <v>104</v>
@@ -3882,13 +3863,13 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F67" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G67" t="s">
         <v>104</v>
@@ -3906,13 +3887,13 @@
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F68" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G68" t="s">
         <v>104</v>
@@ -3930,13 +3911,13 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D69" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F69" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G69" t="s">
         <v>104</v>
@@ -3954,13 +3935,13 @@
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D70" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F70" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G70" t="s">
         <v>104</v>
@@ -3978,13 +3959,13 @@
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F71" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G71" t="s">
         <v>104</v>
@@ -4002,23 +3983,23 @@
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D72" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F72" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G72" t="s">
         <v>104</v>
       </c>
       <c r="H72" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="I72" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerMystOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
@@ -4026,13 +4007,13 @@
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D73" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F73" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G73" t="s">
         <v>104</v>
@@ -4050,13 +4031,13 @@
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F74" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G74" t="s">
         <v>104</v>
@@ -4074,23 +4055,23 @@
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F75" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G75" t="s">
         <v>104</v>
       </c>
       <c r="H75" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="I75" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerMystOrb.wav</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
@@ -4098,13 +4079,13 @@
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F76" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G76" t="s">
         <v>104</v>
@@ -4122,13 +4103,13 @@
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D77" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F77" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G77" t="s">
         <v>104</v>
@@ -4146,23 +4127,23 @@
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D78" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F78" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G78" t="s">
         <v>104</v>
       </c>
       <c r="H78" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="I78" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerScorpio.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
@@ -4170,13 +4151,13 @@
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D79" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F79" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G79" t="s">
         <v>104</v>
@@ -4194,13 +4175,13 @@
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D80" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F80" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G80" t="s">
         <v>104</v>
@@ -4218,23 +4199,23 @@
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D81" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F81" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G81" t="s">
         <v>104</v>
       </c>
       <c r="H81" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="I81" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerBreaker.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerScorpio.wav</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
@@ -4242,13 +4223,13 @@
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D82" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F82" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G82" t="s">
         <v>104</v>
@@ -4266,13 +4247,13 @@
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D83" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F83" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G83" t="s">
         <v>104</v>
@@ -4281,7 +4262,7 @@
         <v>210</v>
       </c>
       <c r="I83" s="6" t="str">
-        <f t="shared" ref="I83:I115" si="8">G83&amp;"/"&amp;H83</f>
+        <f t="shared" si="7"/>
         <v>Assets/ResAB/Audio/AudioBattle/FireTowerBreaker.wav</v>
       </c>
     </row>
@@ -4290,23 +4271,23 @@
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D84" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F84" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G84" t="s">
         <v>104</v>
       </c>
       <c r="H84" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="I84" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <f t="shared" ref="I84:I116" si="8">G84&amp;"/"&amp;H84</f>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerBreaker.wav</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
@@ -4314,13 +4295,13 @@
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D85" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F85" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G85" t="s">
         <v>104</v>
@@ -4338,13 +4319,13 @@
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D86" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F86" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G86" t="s">
         <v>104</v>
@@ -4362,23 +4343,23 @@
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D87" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F87" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G87" t="s">
         <v>104</v>
       </c>
       <c r="H87" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="I87" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerIceArrow.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
@@ -4386,13 +4367,13 @@
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D88" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F88" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G88" t="s">
         <v>104</v>
@@ -4410,13 +4391,13 @@
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D89" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F89" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G89" t="s">
         <v>104</v>
@@ -4434,23 +4415,23 @@
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D90" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F90" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G90" t="s">
         <v>104</v>
       </c>
       <c r="H90" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I90" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerDizzyOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerIceArrow.wav</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
@@ -4458,13 +4439,13 @@
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D91" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F91" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G91" t="s">
         <v>104</v>
@@ -4482,13 +4463,13 @@
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D92" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F92" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G92" t="s">
         <v>104</v>
@@ -4506,23 +4487,23 @@
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D93" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F93" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G93" t="s">
         <v>104</v>
       </c>
       <c r="H93" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="I93" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerTesla.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerDizzyOrb.wav</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
@@ -4530,13 +4511,13 @@
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D94" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F94" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G94" t="s">
         <v>104</v>
@@ -4554,13 +4535,13 @@
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D95" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F95" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G95" t="s">
         <v>104</v>
@@ -4578,23 +4559,23 @@
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>574</v>
+        <v>253</v>
       </c>
       <c r="D96" t="s">
-        <v>575</v>
+        <v>254</v>
       </c>
       <c r="F96" t="s">
-        <v>568</v>
+        <v>255</v>
       </c>
       <c r="G96" t="s">
         <v>104</v>
       </c>
-      <c r="H96" s="8" t="s">
-        <v>585</v>
+      <c r="H96" t="s">
+        <v>249</v>
       </c>
       <c r="I96" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerFire1.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerTesla.wav</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
@@ -4602,13 +4583,13 @@
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D97" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F97" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G97" t="s">
         <v>104</v>
@@ -4626,13 +4607,13 @@
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D98" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F98" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G98" t="s">
         <v>104</v>
@@ -4650,23 +4631,23 @@
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>256</v>
+        <v>578</v>
       </c>
       <c r="D99" t="s">
-        <v>257</v>
+        <v>579</v>
       </c>
       <c r="F99" t="s">
-        <v>258</v>
+        <v>570</v>
       </c>
       <c r="G99" t="s">
         <v>104</v>
       </c>
-      <c r="H99" t="s">
-        <v>259</v>
+      <c r="H99" s="8" t="s">
+        <v>585</v>
       </c>
       <c r="I99" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerHellFire.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerFire1.wav</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
@@ -4674,13 +4655,13 @@
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D100" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F100" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G100" t="s">
         <v>104</v>
@@ -4698,13 +4679,13 @@
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D101" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F101" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G101" t="s">
         <v>104</v>
@@ -4722,23 +4703,23 @@
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D102" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F102" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G102" t="s">
         <v>104</v>
       </c>
       <c r="H102" t="s">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="I102" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerHellFire.wav</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.2">
@@ -4746,13 +4727,13 @@
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D103" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F103" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G103" t="s">
         <v>104</v>
@@ -4770,13 +4751,13 @@
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D104" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F104" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G104" t="s">
         <v>104</v>
@@ -4794,13 +4775,13 @@
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D105" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F105" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G105" t="s">
         <v>104</v>
@@ -4818,13 +4799,13 @@
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F106" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G106" t="s">
         <v>104</v>
@@ -4842,13 +4823,13 @@
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D107" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F107" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G107" t="s">
         <v>104</v>
@@ -4866,13 +4847,13 @@
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D108" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F108" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G108" t="s">
         <v>104</v>
@@ -4890,13 +4871,13 @@
         <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D109" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F109" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G109" t="s">
         <v>104</v>
@@ -4914,13 +4895,13 @@
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D110" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F110" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G110" t="s">
         <v>104</v>
@@ -4938,23 +4919,23 @@
         <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D111" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F111" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G111" t="s">
         <v>104</v>
       </c>
       <c r="H111" t="s">
-        <v>296</v>
+        <v>144</v>
       </c>
       <c r="I111" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerSting.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.2">
@@ -4962,13 +4943,13 @@
         <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D112" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F112" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G112" t="s">
         <v>104</v>
@@ -4986,13 +4967,13 @@
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D113" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F113" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G113" t="s">
         <v>104</v>
@@ -5010,23 +4991,23 @@
         <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D114" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F114" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G114" t="s">
         <v>104</v>
       </c>
       <c r="H114" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="I114" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerRocket.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerSting.wav</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.2">
@@ -5034,13 +5015,13 @@
         <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D115" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F115" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G115" t="s">
         <v>104</v>
@@ -5058,13 +5039,13 @@
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D116" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F116" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G116" t="s">
         <v>104</v>
@@ -5073,7 +5054,7 @@
         <v>306</v>
       </c>
       <c r="I116" s="6" t="str">
-        <f t="shared" ref="I116:I186" si="9">G116&amp;"/"&amp;H116</f>
+        <f t="shared" si="8"/>
         <v>Assets/ResAB/Audio/AudioBattle/FireTowerRocket.wav</v>
       </c>
     </row>
@@ -5082,23 +5063,23 @@
         <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D117" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F117" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G117" t="s">
         <v>104</v>
       </c>
       <c r="H117" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="I117" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerFireOrb.wav</v>
+        <f t="shared" ref="I117:I187" si="9">G117&amp;"/"&amp;H117</f>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerRocket.wav</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.2">
@@ -5106,13 +5087,13 @@
         <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D118" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F118" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G118" t="s">
         <v>104</v>
@@ -5130,13 +5111,13 @@
         <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D119" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F119" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G119" t="s">
         <v>104</v>
@@ -5150,29 +5131,35 @@
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D120" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>554</v>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" t="s">
+        <v>320</v>
+      </c>
+      <c r="D120" t="s">
+        <v>321</v>
+      </c>
+      <c r="F120" t="s">
+        <v>322</v>
       </c>
       <c r="G120" t="s">
         <v>104</v>
       </c>
-      <c r="H120" s="8" t="s">
-        <v>557</v>
+      <c r="H120" t="s">
+        <v>316</v>
       </c>
       <c r="I120" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerBomb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerFireOrb.wav</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D121" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G121" t="s">
         <v>104</v>
@@ -5187,10 +5174,10 @@
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D122" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G122" t="s">
         <v>104</v>
@@ -5205,28 +5192,28 @@
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D123" s="9" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="G123" t="s">
         <v>104</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>589</v>
+        <v>557</v>
       </c>
       <c r="I123" s="6" t="str">
-        <f t="shared" ref="I123:I125" si="10">G123&amp;"/"&amp;H123</f>
-        <v>Assets/ResAB/Audio/AudioBattle/FireTowerGolem.wav</v>
+        <f t="shared" si="9"/>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerBomb.wav</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D124" s="9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G124" t="s">
         <v>104</v>
@@ -5235,16 +5222,16 @@
         <v>589</v>
       </c>
       <c r="I124" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I124:I126" si="10">G124&amp;"/"&amp;H124</f>
         <v>Assets/ResAB/Audio/AudioBattle/FireTowerGolem.wav</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D125" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G125" t="s">
         <v>104</v>
@@ -5257,28 +5244,22 @@
         <v>Assets/ResAB/Audio/AudioBattle/FireTowerGolem.wav</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" t="s">
-        <v>323</v>
-      </c>
-      <c r="D127" t="s">
-        <v>324</v>
-      </c>
-      <c r="F127" t="s">
-        <v>325</v>
-      </c>
-      <c r="G127" t="s">
-        <v>104</v>
-      </c>
-      <c r="H127" t="s">
-        <v>326</v>
-      </c>
-      <c r="I127" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerArrow.wav</v>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D126" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="G126" t="s">
+        <v>104</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="I126" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/Audio/AudioBattle/FireTowerGolem.wav</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.2">
@@ -5286,13 +5267,13 @@
         <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D128" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F128" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G128" t="s">
         <v>104</v>
@@ -5310,13 +5291,13 @@
         <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D129" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F129" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G129" t="s">
         <v>104</v>
@@ -5334,23 +5315,23 @@
         <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D130" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F130" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G130" t="s">
         <v>104</v>
       </c>
       <c r="H130" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="I130" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerCannon.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerArrow.wav</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.2">
@@ -5358,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D131" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F131" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G131" t="s">
         <v>104</v>
@@ -5382,13 +5363,13 @@
         <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D132" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F132" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G132" t="s">
         <v>104</v>
@@ -5406,23 +5387,23 @@
         <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D133" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F133" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G133" t="s">
         <v>104</v>
       </c>
       <c r="H133" t="s">
-        <v>144</v>
+        <v>336</v>
       </c>
       <c r="I133" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerCannon.wav</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.2">
@@ -5430,13 +5411,13 @@
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D134" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F134" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G134" t="s">
         <v>104</v>
@@ -5454,13 +5435,13 @@
         <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D135" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F135" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G135" t="s">
         <v>104</v>
@@ -5478,13 +5459,13 @@
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D136" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F136" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G136" t="s">
         <v>104</v>
@@ -5502,13 +5483,13 @@
         <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D137" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F137" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G137" t="s">
         <v>104</v>
@@ -5526,13 +5507,13 @@
         <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D138" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F138" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G138" t="s">
         <v>104</v>
@@ -5550,23 +5531,23 @@
         <v>15</v>
       </c>
       <c r="C139" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D139" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F139" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G139" t="s">
         <v>104</v>
       </c>
       <c r="H139" t="s">
-        <v>364</v>
+        <v>144</v>
       </c>
       <c r="I139" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDragon.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.2">
@@ -5574,13 +5555,13 @@
         <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D140" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F140" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G140" t="s">
         <v>104</v>
@@ -5598,13 +5579,13 @@
         <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D141" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F141" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G141" t="s">
         <v>104</v>
@@ -5622,23 +5603,23 @@
         <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D142" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F142" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G142" t="s">
         <v>104</v>
       </c>
       <c r="H142" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="I142" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThunder.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDragon.wav</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.2">
@@ -5646,13 +5627,13 @@
         <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D143" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F143" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G143" t="s">
         <v>104</v>
@@ -5670,13 +5651,13 @@
         <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D144" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F144" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G144" t="s">
         <v>104</v>
@@ -5694,23 +5675,23 @@
         <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D145" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F145" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G145" t="s">
         <v>104</v>
       </c>
       <c r="H145" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="I145" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIce.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThunder.wav</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.2">
@@ -5718,13 +5699,13 @@
         <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D146" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F146" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G146" t="s">
         <v>104</v>
@@ -5742,13 +5723,13 @@
         <v>15</v>
       </c>
       <c r="C147" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D147" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F147" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G147" t="s">
         <v>104</v>
@@ -5766,23 +5747,23 @@
         <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D148" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F148" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G148" t="s">
         <v>104</v>
       </c>
       <c r="H148" t="s">
-        <v>144</v>
+        <v>384</v>
       </c>
       <c r="I148" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIce.wav</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.2">
@@ -5790,13 +5771,13 @@
         <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D149" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F149" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G149" t="s">
         <v>104</v>
@@ -5814,13 +5795,13 @@
         <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D150" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F150" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G150" t="s">
         <v>104</v>
@@ -5838,23 +5819,23 @@
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D151" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F151" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G151" t="s">
         <v>104</v>
       </c>
       <c r="H151" t="s">
-        <v>403</v>
+        <v>144</v>
       </c>
       <c r="I151" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerMystOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.2">
@@ -5862,13 +5843,13 @@
         <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D152" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F152" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G152" t="s">
         <v>104</v>
@@ -5886,13 +5867,13 @@
         <v>15</v>
       </c>
       <c r="C153" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D153" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F153" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G153" t="s">
         <v>104</v>
@@ -5910,23 +5891,23 @@
         <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D154" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F154" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G154" t="s">
         <v>104</v>
       </c>
       <c r="H154" t="s">
-        <v>144</v>
+        <v>403</v>
       </c>
       <c r="I154" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerMystOrb.wav</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.2">
@@ -5934,13 +5915,13 @@
         <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D155" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F155" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G155" t="s">
         <v>104</v>
@@ -5958,13 +5939,13 @@
         <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D156" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F156" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G156" t="s">
         <v>104</v>
@@ -5982,23 +5963,23 @@
         <v>15</v>
       </c>
       <c r="C157" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D157" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F157" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G157" t="s">
         <v>104</v>
       </c>
       <c r="H157" t="s">
-        <v>422</v>
+        <v>144</v>
       </c>
       <c r="I157" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerScorpio.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.2">
@@ -6006,13 +5987,13 @@
         <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D158" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F158" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G158" t="s">
         <v>104</v>
@@ -6030,13 +6011,13 @@
         <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D159" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F159" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G159" t="s">
         <v>104</v>
@@ -6054,23 +6035,23 @@
         <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D160" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F160" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G160" t="s">
         <v>104</v>
       </c>
       <c r="H160" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="I160" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBreaker.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerScorpio.wav</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.2">
@@ -6078,13 +6059,13 @@
         <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D161" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F161" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G161" t="s">
         <v>104</v>
@@ -6102,13 +6083,13 @@
         <v>15</v>
       </c>
       <c r="C162" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D162" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F162" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G162" t="s">
         <v>104</v>
@@ -6126,23 +6107,23 @@
         <v>15</v>
       </c>
       <c r="C163" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D163" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F163" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G163" t="s">
         <v>104</v>
       </c>
       <c r="H163" t="s">
-        <v>144</v>
+        <v>432</v>
       </c>
       <c r="I163" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBreaker.wav</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.2">
@@ -6150,13 +6131,13 @@
         <v>15</v>
       </c>
       <c r="C164" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D164" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F164" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G164" t="s">
         <v>104</v>
@@ -6174,13 +6155,13 @@
         <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D165" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F165" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G165" t="s">
         <v>104</v>
@@ -6198,23 +6179,23 @@
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D166" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F166" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G166" t="s">
         <v>104</v>
       </c>
       <c r="H166" t="s">
-        <v>451</v>
+        <v>144</v>
       </c>
       <c r="I166" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIceArrow.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.2">
@@ -6222,13 +6203,13 @@
         <v>15</v>
       </c>
       <c r="C167" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D167" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F167" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G167" t="s">
         <v>104</v>
@@ -6246,13 +6227,13 @@
         <v>15</v>
       </c>
       <c r="C168" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D168" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F168" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G168" t="s">
         <v>104</v>
@@ -6270,23 +6251,23 @@
         <v>15</v>
       </c>
       <c r="C169" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D169" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F169" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G169" t="s">
         <v>104</v>
       </c>
       <c r="H169" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="I169" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDizzyOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerIceArrow.wav</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.2">
@@ -6294,13 +6275,13 @@
         <v>15</v>
       </c>
       <c r="C170" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D170" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F170" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G170" t="s">
         <v>104</v>
@@ -6318,13 +6299,13 @@
         <v>15</v>
       </c>
       <c r="C171" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D171" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F171" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G171" t="s">
         <v>104</v>
@@ -6342,23 +6323,23 @@
         <v>15</v>
       </c>
       <c r="C172" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D172" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F172" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G172" t="s">
         <v>104</v>
       </c>
       <c r="H172" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="I172" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerTesla.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerDizzyOrb.wav</v>
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.2">
@@ -6366,13 +6347,13 @@
         <v>15</v>
       </c>
       <c r="C173" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D173" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F173" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G173" t="s">
         <v>104</v>
@@ -6390,13 +6371,13 @@
         <v>15</v>
       </c>
       <c r="C174" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D174" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F174" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G174" t="s">
         <v>104</v>
@@ -6414,23 +6395,23 @@
         <v>15</v>
       </c>
       <c r="C175" t="s">
-        <v>580</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>586</v>
+        <v>475</v>
+      </c>
+      <c r="D175" t="s">
+        <v>476</v>
       </c>
       <c r="F175" t="s">
-        <v>571</v>
+        <v>477</v>
       </c>
       <c r="G175" t="s">
         <v>104</v>
       </c>
-      <c r="H175" s="8" t="s">
-        <v>587</v>
+      <c r="H175" t="s">
+        <v>471</v>
       </c>
       <c r="I175" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerFire1.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerTesla.wav</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.2">
@@ -6438,13 +6419,13 @@
         <v>15</v>
       </c>
       <c r="C176" t="s">
-        <v>581</v>
-      </c>
-      <c r="D176" t="s">
-        <v>582</v>
+        <v>580</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>586</v>
       </c>
       <c r="F176" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G176" t="s">
         <v>104</v>
@@ -6462,13 +6443,13 @@
         <v>15</v>
       </c>
       <c r="C177" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D177" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F177" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G177" t="s">
         <v>104</v>
@@ -6486,23 +6467,23 @@
         <v>15</v>
       </c>
       <c r="C178" t="s">
-        <v>478</v>
+        <v>583</v>
       </c>
       <c r="D178" t="s">
-        <v>479</v>
+        <v>584</v>
       </c>
       <c r="F178" t="s">
-        <v>480</v>
+        <v>573</v>
       </c>
       <c r="G178" t="s">
         <v>104</v>
       </c>
-      <c r="H178" t="s">
-        <v>481</v>
+      <c r="H178" s="8" t="s">
+        <v>587</v>
       </c>
       <c r="I178" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerHellFire.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerFire1.wav</v>
       </c>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.2">
@@ -6510,13 +6491,13 @@
         <v>15</v>
       </c>
       <c r="C179" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D179" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F179" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G179" t="s">
         <v>104</v>
@@ -6534,13 +6515,13 @@
         <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D180" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F180" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G180" t="s">
         <v>104</v>
@@ -6558,23 +6539,23 @@
         <v>15</v>
       </c>
       <c r="C181" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D181" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F181" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G181" t="s">
         <v>104</v>
       </c>
       <c r="H181" t="s">
-        <v>144</v>
+        <v>481</v>
       </c>
       <c r="I181" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerHellFire.wav</v>
       </c>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.2">
@@ -6582,13 +6563,13 @@
         <v>15</v>
       </c>
       <c r="C182" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D182" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F182" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G182" t="s">
         <v>104</v>
@@ -6606,13 +6587,13 @@
         <v>15</v>
       </c>
       <c r="C183" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D183" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F183" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G183" t="s">
         <v>104</v>
@@ -6630,13 +6611,13 @@
         <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D184" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F184" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G184" t="s">
         <v>104</v>
@@ -6654,13 +6635,13 @@
         <v>15</v>
       </c>
       <c r="C185" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D185" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F185" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G185" t="s">
         <v>104</v>
@@ -6678,13 +6659,13 @@
         <v>15</v>
       </c>
       <c r="C186" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D186" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F186" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G186" t="s">
         <v>104</v>
@@ -6702,23 +6683,23 @@
         <v>15</v>
       </c>
       <c r="C187" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D187" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F187" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G187" t="s">
         <v>104</v>
       </c>
       <c r="H187" t="s">
-        <v>509</v>
+        <v>144</v>
       </c>
       <c r="I187" s="6" t="str">
-        <f t="shared" ref="I187:I198" si="11">G187&amp;"/"&amp;H187</f>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThief.wav</v>
+        <f t="shared" si="9"/>
+        <v>Assets/ResAB/Audio/AudioBattle/none.m4a</v>
       </c>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.2">
@@ -6726,13 +6707,13 @@
         <v>15</v>
       </c>
       <c r="C188" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D188" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F188" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G188" t="s">
         <v>104</v>
@@ -6741,7 +6722,7 @@
         <v>509</v>
       </c>
       <c r="I188" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I188:I199" si="11">G188&amp;"/"&amp;H188</f>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerThief.wav</v>
       </c>
     </row>
@@ -6750,13 +6731,13 @@
         <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D189" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F189" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G189" t="s">
         <v>104</v>
@@ -6774,23 +6755,23 @@
         <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D190" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F190" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G190" t="s">
         <v>104</v>
       </c>
       <c r="H190" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="I190" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerSting.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerThief.wav</v>
       </c>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.2">
@@ -6798,13 +6779,13 @@
         <v>15</v>
       </c>
       <c r="C191" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D191" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F191" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G191" t="s">
         <v>104</v>
@@ -6822,13 +6803,13 @@
         <v>15</v>
       </c>
       <c r="C192" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D192" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F192" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G192" t="s">
         <v>104</v>
@@ -6846,23 +6827,23 @@
         <v>15</v>
       </c>
       <c r="C193" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D193" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F193" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G193" t="s">
         <v>104</v>
       </c>
       <c r="H193" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="I193" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerRocket.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerSting.wav</v>
       </c>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.2">
@@ -6870,13 +6851,13 @@
         <v>15</v>
       </c>
       <c r="C194" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D194" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F194" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G194" t="s">
         <v>104</v>
@@ -6894,13 +6875,13 @@
         <v>15</v>
       </c>
       <c r="C195" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D195" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F195" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G195" t="s">
         <v>104</v>
@@ -6918,23 +6899,23 @@
         <v>15</v>
       </c>
       <c r="C196" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D196" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F196" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G196" t="s">
         <v>104</v>
       </c>
       <c r="H196" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="I196" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerFireOrb.wav</v>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerRocket.wav</v>
       </c>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.2">
@@ -6942,13 +6923,13 @@
         <v>15</v>
       </c>
       <c r="C197" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D197" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F197" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G197" t="s">
         <v>104</v>
@@ -6966,13 +6947,13 @@
         <v>15</v>
       </c>
       <c r="C198" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D198" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F198" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G198" t="s">
         <v>104</v>
@@ -6986,29 +6967,35 @@
       </c>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D199" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="F199" s="8" t="s">
-        <v>558</v>
+      <c r="B199" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199" t="s">
+        <v>543</v>
+      </c>
+      <c r="D199" t="s">
+        <v>544</v>
+      </c>
+      <c r="F199" t="s">
+        <v>545</v>
       </c>
       <c r="G199" t="s">
         <v>104</v>
       </c>
-      <c r="H199" s="8" t="s">
-        <v>561</v>
+      <c r="H199" t="s">
+        <v>539</v>
       </c>
       <c r="I199" s="6" t="str">
-        <f t="shared" ref="I199:I201" si="12">G199&amp;"/"&amp;H199</f>
-        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBomb.wav</v>
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerFireOrb.wav</v>
       </c>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D200" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G200" t="s">
         <v>104</v>
@@ -7017,24 +7004,42 @@
         <v>561</v>
       </c>
       <c r="I200" s="6" t="str">
+        <f t="shared" ref="I200:I202" si="12">G200&amp;"/"&amp;H200</f>
+        <v>Assets/ResAB/Audio/AudioBattle/HitTowerBomb.wav</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D201" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="G201" t="s">
+        <v>104</v>
+      </c>
+      <c r="H201" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="I201" s="6" t="str">
         <f t="shared" si="12"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerBomb.wav</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D201" s="9" t="s">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D202" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="F201" s="8" t="s">
+      <c r="F202" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="G201" t="s">
-        <v>104</v>
-      </c>
-      <c r="H201" s="8" t="s">
+      <c r="G202" t="s">
+        <v>104</v>
+      </c>
+      <c r="H202" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="I201" s="6" t="str">
+      <c r="I202" s="6" t="str">
         <f t="shared" si="12"/>
         <v>Assets/ResAB/Audio/AudioBattle/HitTowerBomb.wav</v>
       </c>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResAudioCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResAudioCfg.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6713B5A8-4038-4B12-8722-A4467EE29B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457E13DF-6D5B-4C83-A5A9-C16527534ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="玩家技能" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="616">
   <si>
     <t>##var</t>
   </si>
@@ -1958,6 +1972,69 @@
   <si>
     <t>Assets/ResAB/Audio/AudioBattle/BaseDie.wav</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲弹发射</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜漩涡发射</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空结界发射</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲弹命中</t>
+  </si>
+  <si>
+    <t>冰霜漩涡命中</t>
+  </si>
+  <si>
+    <t>时空结界命中</t>
+  </si>
+  <si>
+    <t>ResAudio_BreakArmor_Fire</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_IceBind_Fire</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_TimeBarrier_Fire</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/AudioBattle/BreakArmor_Fire.wav</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/AudioBattle/IceBind_Fire.wav</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/AudioBattle/TimeBarrier_Fire.wav</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_BreakArmor_Hit</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/AudioBattle/BreakArmor_Hit.wav</t>
+  </si>
+  <si>
+    <t>ResAudio_IceBind_Hit</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/AudioBattle/IceBind_Hit.wav</t>
+  </si>
+  <si>
+    <t>ResAudio_TimeBarrier_Hit</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/AudioBattle/TimeBarrier_Hit.wav</t>
   </si>
 </sst>
 </file>
@@ -2377,8 +2454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="A11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7049,4 +7126,164 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DD07DC-56E4-47EF-9320-181B16E63B02}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>615</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResAudioCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResAudioCfg.xlsx
@@ -8,33 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457E13DF-6D5B-4C83-A5A9-C16527534ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3449EABB-6670-4333-BB2C-93102C74D87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="玩家技能" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="617">
   <si>
     <t>##var</t>
   </si>
@@ -2035,6 +2022,10 @@
   </si>
   <si>
     <t>Assets/ResAB/Audio/AudioBattle/TimeBarrier_Hit.wav</t>
+  </si>
+  <si>
+    <t>HitTowerFireOrb.wav</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2454,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="A11:I12"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="I199" sqref="I199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7060,7 +7051,7 @@
         <v>104</v>
       </c>
       <c r="H199" t="s">
-        <v>539</v>
+        <v>616</v>
       </c>
       <c r="I199" s="6" t="str">
         <f t="shared" si="11"/>
@@ -7132,7 +7123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DD07DC-56E4-47EF-9320-181B16E63B02}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResAudioCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResAudioCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5760497F-9F1F-4D1D-A65A-1B4CBCC7E380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B41B2B-F116-40A3-AA5D-5D528025AB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="502">
   <si>
     <t>##var</t>
   </si>
@@ -1352,9 +1352,6 @@
     <t>ResAudio_UI_Scan</t>
   </si>
   <si>
-    <t>Assets/ResAB/Audio/AudioUI/scan.wav</t>
-  </si>
-  <si>
     <t>ResAudio_UI_Upgradation</t>
   </si>
   <si>
@@ -1530,9 +1527,6 @@
   </si>
   <si>
     <t>Assets/ResAB/Audio/AudioBattle/HitTowerHellFire.wav</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/Audio/AudioBattle/HitTowerThief.wav</t>
   </si>
   <si>
     <t>Assets/ResAB/Audio/AudioBattle/HitTowerSting.wav</t>
@@ -1564,23 +1558,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>ResAudio_Music_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>battler_boss1</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/ResAB/Audio/Music/battle_danger1.wav</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1619,6 +1596,103 @@
   </si>
   <si>
     <t>Assets/ResAB/Audio/AudioUI/NextWave.wav</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/Music/scan.wav</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_UI_BringUp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>养成成功</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/AudioUI/BringUp.wav</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_UI_GetItem</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取道具时</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/AudioUI/GetItem.wav</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_UI_Unlock</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁物品时</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/AudioUI/Unlock.wav</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_UI_Revive</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活时</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/AudioUI/Revive.wav</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ResAudio_Music_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>battle_boss1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/AudioBattle/HitTowerHellFire.wav</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/AudioBattle/HitTowerDizzyOrb.wav</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/AudioBattle/HitTowerBreaker.wav</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/AudioBattle/HitTowerMystOrb.wav</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/AudioBattle/HitTowerIceArrow.wav</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/AudioBattle/HitTowerTesla.wav</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/Audio/AudioBattle/HitTowerDragon.wav</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2029,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W207"/>
+  <dimension ref="A1:W210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="E196" sqref="E196:E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2311,13 +2385,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -2426,537 +2500,543 @@
         <v>24</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>410</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="9"/>
+      <c r="B39" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>427</v>
-      </c>
-      <c r="D41" t="s">
-        <v>365</v>
+      <c r="B41" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>428</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>429</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>366</v>
+      <c r="B42" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>430</v>
+        <v>493</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>431</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>432</v>
-      </c>
+      <c r="E43" s="1"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>433</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>368</v>
+        <v>426</v>
+      </c>
+      <c r="D44" t="s">
+        <v>365</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>33</v>
+        <v>430</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>34</v>
+        <v>432</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>35</v>
+        <v>434</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="7" t="s">
+      <c r="E52" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>441</v>
-      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>441</v>
-      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="9"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>381</v>
+        <v>441</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D61" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>381</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>381</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D65" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D66" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>443</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>443</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>443</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D70" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D71" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D72" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D77" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D78" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D79" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>443</v>
@@ -2964,10 +3044,10 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D82" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>443</v>
@@ -2975,10 +3055,10 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D83" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>443</v>
@@ -2986,1355 +3066,1388 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D84" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D85" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D86" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D91" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D92" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D93" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D94" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D95" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D97" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D98" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D99" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D100" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D101" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>332</v>
+        <v>127</v>
       </c>
       <c r="D102" t="s">
-        <v>326</v>
+        <v>128</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>333</v>
+        <v>129</v>
       </c>
       <c r="D103" t="s">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>334</v>
+        <v>131</v>
       </c>
       <c r="D104" t="s">
-        <v>328</v>
+        <v>132</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>133</v>
+        <v>332</v>
       </c>
       <c r="D105" t="s">
-        <v>134</v>
+        <v>326</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>135</v>
+        <v>333</v>
       </c>
       <c r="D106" t="s">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>137</v>
+        <v>334</v>
       </c>
       <c r="D107" t="s">
-        <v>138</v>
+        <v>328</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D108" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D110" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D111" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D112" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D113" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D114" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D115" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D116" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D117" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D118" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D119" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D120" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D121" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D122" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D123" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D124" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
+        <v>167</v>
+      </c>
+      <c r="D125" t="s">
+        <v>168</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>169</v>
+      </c>
+      <c r="D126" t="s">
+        <v>170</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>171</v>
+      </c>
+      <c r="D127" t="s">
+        <v>172</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
         <v>173</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D128" t="s">
         <v>174</v>
       </c>
-      <c r="E125" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>316</v>
-      </c>
       <c r="E128" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" s="8" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" s="8" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D134" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="E131" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>175</v>
-      </c>
-      <c r="D133" t="s">
-        <v>176</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>177</v>
-      </c>
-      <c r="D134" t="s">
-        <v>178</v>
-      </c>
       <c r="E134" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
-        <v>179</v>
-      </c>
-      <c r="D135" t="s">
-        <v>180</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D136" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D137" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D138" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D139" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D140" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D141" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D142" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D143" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D144" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D145" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D146" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D147" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D148" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D149" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D150" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D151" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D152" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D153" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D154" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D155" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D156" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D157" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D158" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D159" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D160" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D161" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D162" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D163" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D164" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D165" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D166" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D167" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D168" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D169" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D170" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D171" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D172" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D173" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D174" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D175" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D176" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D177" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D178" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D179" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D180" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B181" s="7" t="s">
-        <v>337</v>
+      <c r="B181" t="s">
+        <v>265</v>
       </c>
       <c r="D181" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="D182" t="s">
-        <v>330</v>
+        <v>268</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>336</v>
+        <v>269</v>
       </c>
       <c r="D183" t="s">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B184" t="s">
-        <v>271</v>
+      <c r="B184" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D184" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="D185" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>275</v>
+        <v>336</v>
       </c>
       <c r="D186" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D187" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D188" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D189" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D190" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D191" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D192" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D193" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D194" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D195" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D196" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D197" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D198" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D199" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D200" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D201" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D202" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D203" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
+        <v>305</v>
+      </c>
+      <c r="D204" t="s">
+        <v>306</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>307</v>
+      </c>
+      <c r="D205" t="s">
+        <v>308</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>309</v>
+      </c>
+      <c r="D206" t="s">
+        <v>310</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
         <v>311</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D207" t="s">
         <v>312</v>
       </c>
-      <c r="E204" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B205" s="8" t="s">
+      <c r="E207" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B208" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D205" s="7" t="s">
+      <c r="D208" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="E205" s="6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B206" s="8" t="s">
+      <c r="E208" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B209" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D206" s="7" t="s">
+      <c r="D209" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="E206" s="6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B207" s="8" t="s">
+      <c r="E209" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B210" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D207" s="7" t="s">
+      <c r="D210" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="E207" s="6" t="s">
-        <v>474</v>
+      <c r="E210" s="6" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
